--- a/data/allcoureses_addtests.xlsx
+++ b/data/allcoureses_addtests.xlsx
@@ -8622,14 +8622,8 @@
       <c r="B19" t="s">
         <v>1239</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
         <v>320</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8729,12 +8723,6 @@
       <c r="C23" t="s">
         <v>2098</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
@@ -8963,12 +8951,6 @@
       <c r="C32" t="s">
         <v>2106</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
@@ -9064,12 +9046,6 @@
       <c r="B36" t="s">
         <v>1256</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36" t="s">
         <v>2278</v>
       </c>
@@ -9096,9 +9072,6 @@
       <c r="D37">
         <v>302</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
@@ -9171,12 +9144,6 @@
       <c r="C40" t="s">
         <v>2111</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
@@ -9506,12 +9473,6 @@
       <c r="B53" t="s">
         <v>1253</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53" t="s">
         <v>2319</v>
       </c>
@@ -9532,12 +9493,6 @@
       <c r="B54" t="s">
         <v>1271</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
       <c r="E54" t="s">
         <v>2239</v>
       </c>
@@ -9558,12 +9513,6 @@
       <c r="B55" t="s">
         <v>1272</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
       <c r="E55" t="s">
         <v>2190</v>
       </c>
@@ -9584,12 +9533,6 @@
       <c r="B56" t="s">
         <v>1273</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
       <c r="E56" t="s">
         <v>2090</v>
       </c>
@@ -9610,12 +9553,6 @@
       <c r="B57" t="s">
         <v>1274</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
       <c r="E57" t="s">
         <v>2079</v>
       </c>
@@ -9636,12 +9573,6 @@
       <c r="B58" t="s">
         <v>1275</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
       <c r="E58" t="s">
         <v>2190</v>
       </c>
@@ -9662,12 +9593,6 @@
       <c r="B59" t="s">
         <v>1222</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
       <c r="E59" t="s">
         <v>2210</v>
       </c>
@@ -9688,12 +9613,6 @@
       <c r="B60" t="s">
         <v>1276</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
       <c r="E60" t="s">
         <v>2214</v>
       </c>
@@ -9714,12 +9633,6 @@
       <c r="B61" t="s">
         <v>1277</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
       <c r="E61" t="s">
         <v>2224</v>
       </c>
@@ -9740,12 +9653,6 @@
       <c r="B62" t="s">
         <v>1278</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
       <c r="E62" t="s">
         <v>2336</v>
       </c>
@@ -9766,12 +9673,6 @@
       <c r="B63" t="s">
         <v>1279</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
       <c r="E63" t="s">
         <v>2224</v>
       </c>
@@ -9792,12 +9693,6 @@
       <c r="B64" t="s">
         <v>1280</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
       <c r="E64" t="s">
         <v>2213</v>
       </c>
@@ -9818,12 +9713,6 @@
       <c r="B65" t="s">
         <v>1281</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
       <c r="E65" t="s">
         <v>2468</v>
       </c>
@@ -9844,12 +9733,6 @@
       <c r="B66" t="s">
         <v>1282</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
       <c r="E66" t="s">
         <v>2123</v>
       </c>
@@ -9870,12 +9753,6 @@
       <c r="B67" t="s">
         <v>1259</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
       <c r="E67" t="s">
         <v>2214</v>
       </c>
@@ -9896,12 +9773,6 @@
       <c r="B68" t="s">
         <v>1283</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
       <c r="E68" t="s">
         <v>2324</v>
       </c>
@@ -9922,12 +9793,6 @@
       <c r="B69" t="s">
         <v>1284</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
       <c r="E69" t="s">
         <v>2453</v>
       </c>
@@ -9948,12 +9813,6 @@
       <c r="B70" t="s">
         <v>1285</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
       <c r="E70" t="s">
         <v>2106</v>
       </c>
@@ -9977,12 +9836,6 @@
       <c r="C71" t="s">
         <v>2121</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
@@ -10000,12 +9853,6 @@
       <c r="B72" t="s">
         <v>1286</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
       <c r="E72" t="s">
         <v>2453</v>
       </c>
@@ -10032,9 +9879,6 @@
       <c r="D73">
         <v>310</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
@@ -10058,9 +9902,6 @@
       <c r="D74">
         <v>301</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
@@ -10084,9 +9925,6 @@
       <c r="D75">
         <v>311</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
@@ -10393,9 +10231,6 @@
       <c r="C87" t="s">
         <v>2132</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
       <c r="E87" t="s">
         <v>2132</v>
       </c>
@@ -10416,12 +10251,6 @@
       <c r="B88" t="s">
         <v>1302</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
       <c r="E88" t="s">
         <v>2132</v>
       </c>
@@ -10442,12 +10271,6 @@
       <c r="B89" t="s">
         <v>1303</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
       <c r="E89" t="s">
         <v>2135</v>
       </c>
@@ -10578,9 +10401,6 @@
       <c r="D94">
         <v>308</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
@@ -10604,9 +10424,6 @@
       <c r="D95">
         <v>463</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
@@ -10630,9 +10447,6 @@
       <c r="D96">
         <v>510</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
@@ -10942,9 +10756,6 @@
       <c r="D108">
         <v>462</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
@@ -10968,9 +10779,6 @@
       <c r="D109">
         <v>346</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
@@ -11352,12 +11160,6 @@
       <c r="B124" t="s">
         <v>1319</v>
       </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
       <c r="E124" t="s">
         <v>2359</v>
       </c>
@@ -11430,12 +11232,6 @@
       <c r="B127" t="s">
         <v>1337</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
       <c r="E127" t="s">
         <v>2128</v>
       </c>
@@ -11875,9 +11671,6 @@
       <c r="C144" t="s">
         <v>2175</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
       <c r="E144" t="s">
         <v>2481</v>
       </c>
@@ -12236,9 +12029,6 @@
       <c r="B158" t="s">
         <v>1365</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
       <c r="D158">
         <v>801</v>
       </c>
@@ -12262,9 +12052,6 @@
       <c r="B159" t="s">
         <v>1366</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
       <c r="D159">
         <v>838</v>
       </c>
@@ -12288,9 +12075,6 @@
       <c r="B160" t="s">
         <v>1367</v>
       </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
       <c r="D160">
         <v>840</v>
       </c>
@@ -12314,9 +12098,6 @@
       <c r="B161" t="s">
         <v>1368</v>
       </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
       <c r="D161">
         <v>841</v>
       </c>
@@ -12814,9 +12595,6 @@
       <c r="D180">
         <v>322</v>
       </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
@@ -12837,12 +12615,6 @@
       <c r="C181" t="s">
         <v>2198</v>
       </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
@@ -12866,9 +12638,6 @@
       <c r="D182">
         <v>288</v>
       </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
@@ -13201,12 +12970,6 @@
       <c r="C195" t="s">
         <v>2208</v>
       </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
@@ -13256,9 +13019,6 @@
       <c r="D197">
         <v>338</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
@@ -13516,9 +13276,6 @@
       <c r="D207">
         <v>423</v>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
       <c r="F207" t="b">
         <v>0</v>
       </c>
@@ -13542,9 +13299,6 @@
       <c r="D208">
         <v>379</v>
       </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
       <c r="F208" t="b">
         <v>0</v>
       </c>
@@ -13562,12 +13316,6 @@
       <c r="B209" t="s">
         <v>1411</v>
       </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
       <c r="E209" t="s">
         <v>2136</v>
       </c>
@@ -14212,9 +13960,6 @@
       <c r="B234" t="s">
         <v>1429</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
       <c r="D234">
         <v>227</v>
       </c>
@@ -14264,9 +14009,6 @@
       <c r="B236" t="s">
         <v>1431</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
       <c r="D236">
         <v>225</v>
       </c>
@@ -14290,12 +14032,6 @@
       <c r="B237" t="s">
         <v>1432</v>
       </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
-        <v>0</v>
-      </c>
       <c r="E237" t="s">
         <v>2501</v>
       </c>
@@ -14420,12 +14156,6 @@
       <c r="B242" t="s">
         <v>1437</v>
       </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
       <c r="E242" t="s">
         <v>2094</v>
       </c>
@@ -14475,9 +14205,6 @@
       <c r="C244" t="s">
         <v>2211</v>
       </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
       <c r="E244" t="s">
         <v>2121</v>
       </c>
@@ -14553,9 +14280,6 @@
       <c r="C247" t="s">
         <v>2237</v>
       </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
       <c r="E247" t="s">
         <v>2503</v>
       </c>
@@ -14888,12 +14612,6 @@
       <c r="B260" t="s">
         <v>1450</v>
       </c>
-      <c r="C260">
-        <v>0</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
       <c r="E260" t="s">
         <v>2509</v>
       </c>
@@ -15619,12 +15337,6 @@
       <c r="C288" t="s">
         <v>2260</v>
       </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
       <c r="F288" t="b">
         <v>0</v>
       </c>
@@ -15668,12 +15380,6 @@
       <c r="B290" t="s">
         <v>1475</v>
       </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
       <c r="E290" t="s">
         <v>2124</v>
       </c>
@@ -15720,12 +15426,6 @@
       <c r="B292" t="s">
         <v>1477</v>
       </c>
-      <c r="C292">
-        <v>0</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
       <c r="E292" t="s">
         <v>2197</v>
       </c>
@@ -15746,12 +15446,6 @@
       <c r="B293" t="s">
         <v>1478</v>
       </c>
-      <c r="C293">
-        <v>0</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
       <c r="E293" t="s">
         <v>2197</v>
       </c>
@@ -15778,9 +15472,6 @@
       <c r="D294">
         <v>419</v>
       </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
       <c r="F294" t="b">
         <v>0</v>
       </c>
@@ -15801,12 +15492,6 @@
       <c r="C295" t="s">
         <v>2264</v>
       </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
       <c r="F295" t="b">
         <v>0</v>
       </c>
@@ -15905,12 +15590,6 @@
       <c r="C299" t="s">
         <v>2266</v>
       </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
       <c r="F299" t="b">
         <v>0</v>
       </c>
@@ -16006,9 +15685,6 @@
       <c r="B303" t="s">
         <v>1485</v>
       </c>
-      <c r="C303">
-        <v>0</v>
-      </c>
       <c r="D303">
         <v>498</v>
       </c>
@@ -16165,12 +15841,6 @@
       <c r="C309" t="s">
         <v>2269</v>
       </c>
-      <c r="D309">
-        <v>0</v>
-      </c>
-      <c r="E309">
-        <v>0</v>
-      </c>
       <c r="F309" t="b">
         <v>0</v>
       </c>
@@ -16243,12 +15913,6 @@
       <c r="C312" t="s">
         <v>2160</v>
       </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-      <c r="E312">
-        <v>0</v>
-      </c>
       <c r="F312" t="b">
         <v>0</v>
       </c>
@@ -16500,14 +16164,8 @@
       <c r="B322" t="s">
         <v>1499</v>
       </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
       <c r="D322">
         <v>430</v>
-      </c>
-      <c r="E322">
-        <v>0</v>
       </c>
       <c r="F322" t="b">
         <v>0</v>
@@ -16555,12 +16213,6 @@
       <c r="C324" t="s">
         <v>2275</v>
       </c>
-      <c r="D324">
-        <v>0</v>
-      </c>
-      <c r="E324">
-        <v>0</v>
-      </c>
       <c r="F324" t="b">
         <v>0</v>
       </c>
@@ -16659,12 +16311,6 @@
       <c r="C328" t="s">
         <v>2199</v>
       </c>
-      <c r="D328">
-        <v>0</v>
-      </c>
-      <c r="E328">
-        <v>0</v>
-      </c>
       <c r="F328" t="b">
         <v>0</v>
       </c>
@@ -16818,9 +16464,6 @@
       <c r="D334">
         <v>307</v>
       </c>
-      <c r="E334">
-        <v>0</v>
-      </c>
       <c r="F334" t="b">
         <v>0</v>
       </c>
@@ -16948,9 +16591,6 @@
       <c r="D339">
         <v>305</v>
       </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
       <c r="F339" t="b">
         <v>0</v>
       </c>
@@ -16974,9 +16614,6 @@
       <c r="D340">
         <v>304</v>
       </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
       <c r="F340" t="b">
         <v>0</v>
       </c>
@@ -17000,9 +16637,6 @@
       <c r="D341">
         <v>391</v>
       </c>
-      <c r="E341">
-        <v>0</v>
-      </c>
       <c r="F341" t="b">
         <v>0</v>
       </c>
@@ -17026,9 +16660,6 @@
       <c r="D342">
         <v>317</v>
       </c>
-      <c r="E342">
-        <v>0</v>
-      </c>
       <c r="F342" t="b">
         <v>0</v>
       </c>
@@ -17046,9 +16677,6 @@
       <c r="B343" t="s">
         <v>1513</v>
       </c>
-      <c r="C343">
-        <v>0</v>
-      </c>
       <c r="D343">
         <v>532</v>
       </c>
@@ -17413,12 +17041,6 @@
       <c r="C357" t="s">
         <v>2287</v>
       </c>
-      <c r="D357">
-        <v>0</v>
-      </c>
-      <c r="E357">
-        <v>0</v>
-      </c>
       <c r="F357" t="b">
         <v>0</v>
       </c>
@@ -17436,15 +17058,6 @@
       <c r="B358" t="s">
         <v>1524</v>
       </c>
-      <c r="C358">
-        <v>0</v>
-      </c>
-      <c r="D358">
-        <v>0</v>
-      </c>
-      <c r="E358">
-        <v>0</v>
-      </c>
       <c r="F358" t="b">
         <v>0</v>
       </c>
@@ -17468,9 +17081,6 @@
       <c r="D359">
         <v>301</v>
       </c>
-      <c r="E359">
-        <v>0</v>
-      </c>
       <c r="F359" t="b">
         <v>0</v>
       </c>
@@ -17494,9 +17104,6 @@
       <c r="D360">
         <v>330</v>
       </c>
-      <c r="E360">
-        <v>0</v>
-      </c>
       <c r="F360" t="b">
         <v>0</v>
       </c>
@@ -17514,9 +17121,6 @@
       <c r="B361" t="s">
         <v>1527</v>
       </c>
-      <c r="C361">
-        <v>0</v>
-      </c>
       <c r="D361">
         <v>212</v>
       </c>
@@ -17670,9 +17274,6 @@
       <c r="B367" t="s">
         <v>1532</v>
       </c>
-      <c r="C367">
-        <v>0</v>
-      </c>
       <c r="D367">
         <v>506</v>
       </c>
@@ -17696,9 +17297,6 @@
       <c r="B368" t="s">
         <v>1533</v>
       </c>
-      <c r="C368">
-        <v>0</v>
-      </c>
       <c r="D368">
         <v>593</v>
       </c>
@@ -17722,9 +17320,6 @@
       <c r="B369" t="s">
         <v>1534</v>
       </c>
-      <c r="C369">
-        <v>0</v>
-      </c>
       <c r="D369">
         <v>939</v>
       </c>
@@ -17748,9 +17343,6 @@
       <c r="B370" t="s">
         <v>1535</v>
       </c>
-      <c r="C370">
-        <v>0</v>
-      </c>
       <c r="D370">
         <v>781</v>
       </c>
@@ -17826,9 +17418,6 @@
       <c r="B373" t="s">
         <v>1517</v>
       </c>
-      <c r="C373">
-        <v>0</v>
-      </c>
       <c r="D373">
         <v>990</v>
       </c>
@@ -17852,12 +17441,6 @@
       <c r="B374" t="s">
         <v>1538</v>
       </c>
-      <c r="C374">
-        <v>0</v>
-      </c>
-      <c r="D374">
-        <v>0</v>
-      </c>
       <c r="E374" t="s">
         <v>2454</v>
       </c>
@@ -17962,9 +17545,6 @@
       <c r="D378">
         <v>683</v>
       </c>
-      <c r="E378">
-        <v>0</v>
-      </c>
       <c r="F378" t="b">
         <v>1</v>
       </c>
@@ -17988,9 +17568,6 @@
       <c r="D379">
         <v>228</v>
       </c>
-      <c r="E379">
-        <v>0</v>
-      </c>
       <c r="F379" t="b">
         <v>0</v>
       </c>
@@ -18014,9 +17591,6 @@
       <c r="D380">
         <v>276</v>
       </c>
-      <c r="E380">
-        <v>0</v>
-      </c>
       <c r="F380" t="b">
         <v>0</v>
       </c>
@@ -18037,12 +17611,6 @@
       <c r="C381" t="s">
         <v>2299</v>
       </c>
-      <c r="D381">
-        <v>0</v>
-      </c>
-      <c r="E381">
-        <v>0</v>
-      </c>
       <c r="F381" t="b">
         <v>1</v>
       </c>
@@ -18063,12 +17631,6 @@
       <c r="C382" t="s">
         <v>2300</v>
       </c>
-      <c r="D382">
-        <v>0</v>
-      </c>
-      <c r="E382">
-        <v>0</v>
-      </c>
       <c r="F382" t="b">
         <v>1</v>
       </c>
@@ -18089,12 +17651,6 @@
       <c r="C383" t="s">
         <v>2301</v>
       </c>
-      <c r="D383">
-        <v>0</v>
-      </c>
-      <c r="E383">
-        <v>0</v>
-      </c>
       <c r="F383" t="b">
         <v>1</v>
       </c>
@@ -18300,9 +17856,6 @@
       <c r="D391">
         <v>440</v>
       </c>
-      <c r="E391">
-        <v>0</v>
-      </c>
       <c r="F391" t="b">
         <v>0</v>
       </c>
@@ -18346,9 +17899,6 @@
       <c r="B393" t="s">
         <v>1554</v>
       </c>
-      <c r="C393">
-        <v>0</v>
-      </c>
       <c r="D393">
         <v>410</v>
       </c>
@@ -18372,9 +17922,6 @@
       <c r="B394" t="s">
         <v>1555</v>
       </c>
-      <c r="C394">
-        <v>0</v>
-      </c>
       <c r="D394">
         <v>418</v>
       </c>
@@ -18450,9 +17997,6 @@
       <c r="B397" t="s">
         <v>1557</v>
       </c>
-      <c r="C397">
-        <v>0</v>
-      </c>
       <c r="D397">
         <v>311</v>
       </c>
@@ -18476,9 +18020,6 @@
       <c r="B398" t="s">
         <v>1558</v>
       </c>
-      <c r="C398">
-        <v>0</v>
-      </c>
       <c r="D398">
         <v>297</v>
       </c>
@@ -18528,12 +18069,6 @@
       <c r="B400" t="s">
         <v>1560</v>
       </c>
-      <c r="C400">
-        <v>0</v>
-      </c>
-      <c r="D400">
-        <v>0</v>
-      </c>
       <c r="E400" t="s">
         <v>2132</v>
       </c>
@@ -18609,9 +18144,6 @@
       <c r="C403" t="s">
         <v>2308</v>
       </c>
-      <c r="D403">
-        <v>0</v>
-      </c>
       <c r="E403" t="s">
         <v>2529</v>
       </c>
@@ -18661,9 +18193,6 @@
       <c r="C405" t="s">
         <v>2132</v>
       </c>
-      <c r="D405">
-        <v>0</v>
-      </c>
       <c r="E405" t="s">
         <v>2132</v>
       </c>
@@ -19204,12 +18733,6 @@
       <c r="B426" t="s">
         <v>1578</v>
       </c>
-      <c r="C426">
-        <v>0</v>
-      </c>
-      <c r="D426">
-        <v>0</v>
-      </c>
       <c r="E426" t="s">
         <v>2359</v>
       </c>
@@ -19230,12 +18753,6 @@
       <c r="B427" t="s">
         <v>1579</v>
       </c>
-      <c r="C427">
-        <v>0</v>
-      </c>
-      <c r="D427">
-        <v>0</v>
-      </c>
       <c r="E427" t="s">
         <v>2196</v>
       </c>
@@ -19256,12 +18773,6 @@
       <c r="B428" t="s">
         <v>1580</v>
       </c>
-      <c r="C428">
-        <v>0</v>
-      </c>
-      <c r="D428">
-        <v>0</v>
-      </c>
       <c r="E428" t="s">
         <v>2221</v>
       </c>
@@ -19282,12 +18793,6 @@
       <c r="B429" t="s">
         <v>1581</v>
       </c>
-      <c r="C429">
-        <v>0</v>
-      </c>
-      <c r="D429">
-        <v>0</v>
-      </c>
       <c r="E429" t="s">
         <v>2263</v>
       </c>
@@ -19308,12 +18813,6 @@
       <c r="B430" t="s">
         <v>1582</v>
       </c>
-      <c r="C430">
-        <v>0</v>
-      </c>
-      <c r="D430">
-        <v>0</v>
-      </c>
       <c r="E430" t="s">
         <v>2532</v>
       </c>
@@ -19334,12 +18833,6 @@
       <c r="B431" t="s">
         <v>1583</v>
       </c>
-      <c r="C431">
-        <v>0</v>
-      </c>
-      <c r="D431">
-        <v>0</v>
-      </c>
       <c r="E431" t="s">
         <v>2127</v>
       </c>
@@ -19360,12 +18853,6 @@
       <c r="B432" t="s">
         <v>1584</v>
       </c>
-      <c r="C432">
-        <v>0</v>
-      </c>
-      <c r="D432">
-        <v>0</v>
-      </c>
       <c r="E432" t="s">
         <v>2128</v>
       </c>
@@ -19386,12 +18873,6 @@
       <c r="B433" t="s">
         <v>1585</v>
       </c>
-      <c r="C433">
-        <v>0</v>
-      </c>
-      <c r="D433">
-        <v>0</v>
-      </c>
       <c r="E433" t="s">
         <v>2371</v>
       </c>
@@ -19412,12 +18893,6 @@
       <c r="B434" t="s">
         <v>1586</v>
       </c>
-      <c r="C434">
-        <v>0</v>
-      </c>
-      <c r="D434">
-        <v>0</v>
-      </c>
       <c r="E434" t="s">
         <v>2317</v>
       </c>
@@ -19438,12 +18913,6 @@
       <c r="B435" t="s">
         <v>1392</v>
       </c>
-      <c r="C435">
-        <v>0</v>
-      </c>
-      <c r="D435">
-        <v>0</v>
-      </c>
       <c r="E435" t="s">
         <v>2098</v>
       </c>
@@ -19464,12 +18933,6 @@
       <c r="B436" t="s">
         <v>1390</v>
       </c>
-      <c r="C436">
-        <v>0</v>
-      </c>
-      <c r="D436">
-        <v>0</v>
-      </c>
       <c r="E436" t="s">
         <v>2217</v>
       </c>
@@ -19490,12 +18953,6 @@
       <c r="B437" t="s">
         <v>1587</v>
       </c>
-      <c r="C437">
-        <v>0</v>
-      </c>
-      <c r="D437">
-        <v>0</v>
-      </c>
       <c r="E437" t="s">
         <v>2117</v>
       </c>
@@ -19516,12 +18973,6 @@
       <c r="B438" t="s">
         <v>1588</v>
       </c>
-      <c r="C438">
-        <v>0</v>
-      </c>
-      <c r="D438">
-        <v>0</v>
-      </c>
       <c r="E438" t="s">
         <v>2410</v>
       </c>
@@ -19542,12 +18993,6 @@
       <c r="B439" t="s">
         <v>1589</v>
       </c>
-      <c r="C439">
-        <v>0</v>
-      </c>
-      <c r="D439">
-        <v>0</v>
-      </c>
       <c r="E439" t="s">
         <v>2253</v>
       </c>
@@ -19568,12 +19013,6 @@
       <c r="B440" t="s">
         <v>1330</v>
       </c>
-      <c r="C440">
-        <v>0</v>
-      </c>
-      <c r="D440">
-        <v>0</v>
-      </c>
       <c r="E440" t="s">
         <v>2195</v>
       </c>
@@ -19594,12 +19033,6 @@
       <c r="B441" t="s">
         <v>1590</v>
       </c>
-      <c r="C441">
-        <v>0</v>
-      </c>
-      <c r="D441">
-        <v>0</v>
-      </c>
       <c r="E441" t="s">
         <v>2137</v>
       </c>
@@ -19620,12 +19053,6 @@
       <c r="B442" t="s">
         <v>1591</v>
       </c>
-      <c r="C442">
-        <v>0</v>
-      </c>
-      <c r="D442">
-        <v>0</v>
-      </c>
       <c r="E442" t="s">
         <v>2311</v>
       </c>
@@ -19646,12 +19073,6 @@
       <c r="B443" t="s">
         <v>1592</v>
       </c>
-      <c r="C443">
-        <v>0</v>
-      </c>
-      <c r="D443">
-        <v>0</v>
-      </c>
       <c r="E443" t="s">
         <v>2090</v>
       </c>
@@ -19672,12 +19093,6 @@
       <c r="B444" t="s">
         <v>1593</v>
       </c>
-      <c r="C444">
-        <v>0</v>
-      </c>
-      <c r="D444">
-        <v>0</v>
-      </c>
       <c r="E444" t="s">
         <v>2287</v>
       </c>
@@ -19698,12 +19113,6 @@
       <c r="B445" t="s">
         <v>1594</v>
       </c>
-      <c r="C445">
-        <v>0</v>
-      </c>
-      <c r="D445">
-        <v>0</v>
-      </c>
       <c r="E445" t="s">
         <v>2093</v>
       </c>
@@ -19724,12 +19133,6 @@
       <c r="B446" t="s">
         <v>1595</v>
       </c>
-      <c r="C446">
-        <v>0</v>
-      </c>
-      <c r="D446">
-        <v>0</v>
-      </c>
       <c r="E446" t="s">
         <v>2140</v>
       </c>
@@ -19750,12 +19153,6 @@
       <c r="B447" t="s">
         <v>1596</v>
       </c>
-      <c r="C447">
-        <v>0</v>
-      </c>
-      <c r="D447">
-        <v>0</v>
-      </c>
       <c r="E447" t="s">
         <v>2426</v>
       </c>
@@ -19776,12 +19173,6 @@
       <c r="B448" t="s">
         <v>1597</v>
       </c>
-      <c r="C448">
-        <v>0</v>
-      </c>
-      <c r="D448">
-        <v>0</v>
-      </c>
       <c r="E448" t="s">
         <v>2415</v>
       </c>
@@ -19802,12 +19193,6 @@
       <c r="B449" t="s">
         <v>1598</v>
       </c>
-      <c r="C449">
-        <v>0</v>
-      </c>
-      <c r="D449">
-        <v>0</v>
-      </c>
       <c r="E449" t="s">
         <v>2127</v>
       </c>
@@ -19828,12 +19213,6 @@
       <c r="B450" t="s">
         <v>1325</v>
       </c>
-      <c r="C450">
-        <v>0</v>
-      </c>
-      <c r="D450">
-        <v>0</v>
-      </c>
       <c r="E450" t="s">
         <v>2218</v>
       </c>
@@ -19854,12 +19233,6 @@
       <c r="B451" t="s">
         <v>1599</v>
       </c>
-      <c r="C451">
-        <v>0</v>
-      </c>
-      <c r="D451">
-        <v>0</v>
-      </c>
       <c r="E451" t="s">
         <v>2533</v>
       </c>
@@ -19880,12 +19253,6 @@
       <c r="B452" t="s">
         <v>1600</v>
       </c>
-      <c r="C452">
-        <v>0</v>
-      </c>
-      <c r="D452">
-        <v>0</v>
-      </c>
       <c r="E452" t="s">
         <v>2100</v>
       </c>
@@ -19906,12 +19273,6 @@
       <c r="B453" t="s">
         <v>1601</v>
       </c>
-      <c r="C453">
-        <v>0</v>
-      </c>
-      <c r="D453">
-        <v>0</v>
-      </c>
       <c r="E453" t="s">
         <v>2288</v>
       </c>
@@ -19932,12 +19293,6 @@
       <c r="B454" t="s">
         <v>1602</v>
       </c>
-      <c r="C454">
-        <v>0</v>
-      </c>
-      <c r="D454">
-        <v>0</v>
-      </c>
       <c r="E454" t="s">
         <v>2271</v>
       </c>
@@ -19958,12 +19313,6 @@
       <c r="B455" t="s">
         <v>1603</v>
       </c>
-      <c r="C455">
-        <v>0</v>
-      </c>
-      <c r="D455">
-        <v>0</v>
-      </c>
       <c r="E455" t="s">
         <v>2102</v>
       </c>
@@ -19984,12 +19333,6 @@
       <c r="B456" t="s">
         <v>1604</v>
       </c>
-      <c r="C456">
-        <v>0</v>
-      </c>
-      <c r="D456">
-        <v>0</v>
-      </c>
       <c r="E456" t="s">
         <v>2410</v>
       </c>
@@ -20010,12 +19353,6 @@
       <c r="B457" t="s">
         <v>1254</v>
       </c>
-      <c r="C457">
-        <v>0</v>
-      </c>
-      <c r="D457">
-        <v>0</v>
-      </c>
       <c r="E457" t="s">
         <v>2267</v>
       </c>
@@ -20036,12 +19373,6 @@
       <c r="B458" t="s">
         <v>1382</v>
       </c>
-      <c r="C458">
-        <v>0</v>
-      </c>
-      <c r="D458">
-        <v>0</v>
-      </c>
       <c r="E458" t="s">
         <v>2263</v>
       </c>
@@ -20062,12 +19393,6 @@
       <c r="B459" t="s">
         <v>1605</v>
       </c>
-      <c r="C459">
-        <v>0</v>
-      </c>
-      <c r="D459">
-        <v>0</v>
-      </c>
       <c r="E459" t="s">
         <v>2112</v>
       </c>
@@ -20088,12 +19413,6 @@
       <c r="B460" t="s">
         <v>1606</v>
       </c>
-      <c r="C460">
-        <v>0</v>
-      </c>
-      <c r="D460">
-        <v>0</v>
-      </c>
       <c r="E460" t="s">
         <v>2283</v>
       </c>
@@ -20114,12 +19433,6 @@
       <c r="B461" t="s">
         <v>1607</v>
       </c>
-      <c r="C461">
-        <v>0</v>
-      </c>
-      <c r="D461">
-        <v>0</v>
-      </c>
       <c r="E461" t="s">
         <v>2090</v>
       </c>
@@ -20140,12 +19453,6 @@
       <c r="B462" t="s">
         <v>1608</v>
       </c>
-      <c r="C462">
-        <v>0</v>
-      </c>
-      <c r="D462">
-        <v>0</v>
-      </c>
       <c r="E462" t="s">
         <v>2415</v>
       </c>
@@ -20166,12 +19473,6 @@
       <c r="B463" t="s">
         <v>1279</v>
       </c>
-      <c r="C463">
-        <v>0</v>
-      </c>
-      <c r="D463">
-        <v>0</v>
-      </c>
       <c r="E463" t="s">
         <v>2381</v>
       </c>
@@ -20192,12 +19493,6 @@
       <c r="B464" t="s">
         <v>1609</v>
       </c>
-      <c r="C464">
-        <v>0</v>
-      </c>
-      <c r="D464">
-        <v>0</v>
-      </c>
       <c r="E464" t="s">
         <v>2202</v>
       </c>
@@ -20218,12 +19513,6 @@
       <c r="B465" t="s">
         <v>1574</v>
       </c>
-      <c r="C465">
-        <v>0</v>
-      </c>
-      <c r="D465">
-        <v>0</v>
-      </c>
       <c r="E465" t="s">
         <v>2534</v>
       </c>
@@ -20244,12 +19533,6 @@
       <c r="B466" t="s">
         <v>1610</v>
       </c>
-      <c r="C466">
-        <v>0</v>
-      </c>
-      <c r="D466">
-        <v>0</v>
-      </c>
       <c r="E466" t="s">
         <v>2090</v>
       </c>
@@ -20270,12 +19553,6 @@
       <c r="B467" t="s">
         <v>1611</v>
       </c>
-      <c r="C467">
-        <v>0</v>
-      </c>
-      <c r="D467">
-        <v>0</v>
-      </c>
       <c r="E467" t="s">
         <v>2111</v>
       </c>
@@ -20296,12 +19573,6 @@
       <c r="B468" t="s">
         <v>1612</v>
       </c>
-      <c r="C468">
-        <v>0</v>
-      </c>
-      <c r="D468">
-        <v>0</v>
-      </c>
       <c r="E468" t="s">
         <v>2079</v>
       </c>
@@ -20322,12 +19593,6 @@
       <c r="B469" t="s">
         <v>1613</v>
       </c>
-      <c r="C469">
-        <v>0</v>
-      </c>
-      <c r="D469">
-        <v>0</v>
-      </c>
       <c r="E469" t="s">
         <v>2503</v>
       </c>
@@ -20348,12 +19613,6 @@
       <c r="B470" t="s">
         <v>1614</v>
       </c>
-      <c r="C470">
-        <v>0</v>
-      </c>
-      <c r="D470">
-        <v>0</v>
-      </c>
       <c r="E470" t="s">
         <v>2098</v>
       </c>
@@ -20374,12 +19633,6 @@
       <c r="B471" t="s">
         <v>1252</v>
       </c>
-      <c r="C471">
-        <v>0</v>
-      </c>
-      <c r="D471">
-        <v>0</v>
-      </c>
       <c r="E471" t="s">
         <v>2441</v>
       </c>
@@ -20400,12 +19653,6 @@
       <c r="B472" t="s">
         <v>1615</v>
       </c>
-      <c r="C472">
-        <v>0</v>
-      </c>
-      <c r="D472">
-        <v>0</v>
-      </c>
       <c r="E472" t="s">
         <v>2513</v>
       </c>
@@ -20426,12 +19673,6 @@
       <c r="B473" t="s">
         <v>1616</v>
       </c>
-      <c r="C473">
-        <v>0</v>
-      </c>
-      <c r="D473">
-        <v>0</v>
-      </c>
       <c r="E473" t="s">
         <v>2093</v>
       </c>
@@ -20452,12 +19693,6 @@
       <c r="B474" t="s">
         <v>1617</v>
       </c>
-      <c r="C474">
-        <v>0</v>
-      </c>
-      <c r="D474">
-        <v>0</v>
-      </c>
       <c r="E474" t="s">
         <v>2312</v>
       </c>
@@ -20478,12 +19713,6 @@
       <c r="B475" t="s">
         <v>1618</v>
       </c>
-      <c r="C475">
-        <v>0</v>
-      </c>
-      <c r="D475">
-        <v>0</v>
-      </c>
       <c r="E475" t="s">
         <v>2535</v>
       </c>
@@ -20504,12 +19733,6 @@
       <c r="B476" t="s">
         <v>1619</v>
       </c>
-      <c r="C476">
-        <v>0</v>
-      </c>
-      <c r="D476">
-        <v>0</v>
-      </c>
       <c r="E476" t="s">
         <v>2536</v>
       </c>
@@ -20530,12 +19753,6 @@
       <c r="B477" t="s">
         <v>1620</v>
       </c>
-      <c r="C477">
-        <v>0</v>
-      </c>
-      <c r="D477">
-        <v>0</v>
-      </c>
       <c r="E477" t="s">
         <v>2180</v>
       </c>
@@ -20556,12 +19773,6 @@
       <c r="B478" t="s">
         <v>1621</v>
       </c>
-      <c r="C478">
-        <v>0</v>
-      </c>
-      <c r="D478">
-        <v>0</v>
-      </c>
       <c r="E478" t="s">
         <v>2537</v>
       </c>
@@ -20582,12 +19793,6 @@
       <c r="B479" t="s">
         <v>1622</v>
       </c>
-      <c r="C479">
-        <v>0</v>
-      </c>
-      <c r="D479">
-        <v>0</v>
-      </c>
       <c r="E479" t="s">
         <v>2252</v>
       </c>
@@ -20608,12 +19813,6 @@
       <c r="B480" t="s">
         <v>1623</v>
       </c>
-      <c r="C480">
-        <v>0</v>
-      </c>
-      <c r="D480">
-        <v>0</v>
-      </c>
       <c r="E480" t="s">
         <v>2369</v>
       </c>
@@ -20634,12 +19833,6 @@
       <c r="B481" t="s">
         <v>1624</v>
       </c>
-      <c r="C481">
-        <v>0</v>
-      </c>
-      <c r="D481">
-        <v>0</v>
-      </c>
       <c r="E481" t="s">
         <v>2211</v>
       </c>
@@ -20660,12 +19853,6 @@
       <c r="B482" t="s">
         <v>1625</v>
       </c>
-      <c r="C482">
-        <v>0</v>
-      </c>
-      <c r="D482">
-        <v>0</v>
-      </c>
       <c r="E482" t="s">
         <v>2131</v>
       </c>
@@ -20686,12 +19873,6 @@
       <c r="B483" t="s">
         <v>1626</v>
       </c>
-      <c r="C483">
-        <v>0</v>
-      </c>
-      <c r="D483">
-        <v>0</v>
-      </c>
       <c r="E483" t="s">
         <v>2355</v>
       </c>
@@ -20712,12 +19893,6 @@
       <c r="B484" t="s">
         <v>1627</v>
       </c>
-      <c r="C484">
-        <v>0</v>
-      </c>
-      <c r="D484">
-        <v>0</v>
-      </c>
       <c r="E484" t="s">
         <v>2132</v>
       </c>
@@ -20738,12 +19913,6 @@
       <c r="B485" t="s">
         <v>1628</v>
       </c>
-      <c r="C485">
-        <v>0</v>
-      </c>
-      <c r="D485">
-        <v>0</v>
-      </c>
       <c r="E485" t="s">
         <v>2538</v>
       </c>
@@ -20764,12 +19933,6 @@
       <c r="B486" t="s">
         <v>1629</v>
       </c>
-      <c r="C486">
-        <v>0</v>
-      </c>
-      <c r="D486">
-        <v>0</v>
-      </c>
       <c r="E486" t="s">
         <v>2539</v>
       </c>
@@ -20790,12 +19953,6 @@
       <c r="B487" t="s">
         <v>1630</v>
       </c>
-      <c r="C487">
-        <v>0</v>
-      </c>
-      <c r="D487">
-        <v>0</v>
-      </c>
       <c r="E487" t="s">
         <v>2540</v>
       </c>
@@ -20816,12 +19973,6 @@
       <c r="B488" t="s">
         <v>1631</v>
       </c>
-      <c r="C488">
-        <v>0</v>
-      </c>
-      <c r="D488">
-        <v>0</v>
-      </c>
       <c r="E488" t="s">
         <v>2525</v>
       </c>
@@ -20842,12 +19993,6 @@
       <c r="B489" t="s">
         <v>1632</v>
       </c>
-      <c r="C489">
-        <v>0</v>
-      </c>
-      <c r="D489">
-        <v>0</v>
-      </c>
       <c r="E489" t="s">
         <v>2212</v>
       </c>
@@ -20868,12 +20013,6 @@
       <c r="B490" t="s">
         <v>1515</v>
       </c>
-      <c r="C490">
-        <v>0</v>
-      </c>
-      <c r="D490">
-        <v>0</v>
-      </c>
       <c r="E490" t="s">
         <v>2541</v>
       </c>
@@ -20894,12 +20033,6 @@
       <c r="B491" t="s">
         <v>1355</v>
       </c>
-      <c r="C491">
-        <v>0</v>
-      </c>
-      <c r="D491">
-        <v>0</v>
-      </c>
       <c r="E491" t="s">
         <v>2147</v>
       </c>
@@ -20920,12 +20053,6 @@
       <c r="B492" t="s">
         <v>1468</v>
       </c>
-      <c r="C492">
-        <v>0</v>
-      </c>
-      <c r="D492">
-        <v>0</v>
-      </c>
       <c r="E492" t="s">
         <v>2133</v>
       </c>
@@ -20946,12 +20073,6 @@
       <c r="B493" t="s">
         <v>1633</v>
       </c>
-      <c r="C493">
-        <v>0</v>
-      </c>
-      <c r="D493">
-        <v>0</v>
-      </c>
       <c r="E493" t="s">
         <v>2319</v>
       </c>
@@ -20972,12 +20093,6 @@
       <c r="B494" t="s">
         <v>1634</v>
       </c>
-      <c r="C494">
-        <v>0</v>
-      </c>
-      <c r="D494">
-        <v>0</v>
-      </c>
       <c r="E494" t="s">
         <v>2224</v>
       </c>
@@ -21287,12 +20402,6 @@
       <c r="C506" t="s">
         <v>2321</v>
       </c>
-      <c r="D506">
-        <v>0</v>
-      </c>
-      <c r="E506">
-        <v>0</v>
-      </c>
       <c r="F506" t="b">
         <v>0</v>
       </c>
@@ -21414,12 +20523,6 @@
       <c r="B511" t="s">
         <v>1647</v>
       </c>
-      <c r="C511">
-        <v>0</v>
-      </c>
-      <c r="D511">
-        <v>0</v>
-      </c>
       <c r="E511" t="s">
         <v>2438</v>
       </c>
@@ -21706,9 +20809,6 @@
       <c r="D522">
         <v>309</v>
       </c>
-      <c r="E522">
-        <v>0</v>
-      </c>
       <c r="F522" t="b">
         <v>0</v>
       </c>
@@ -22200,9 +21300,6 @@
       <c r="D541">
         <v>244</v>
       </c>
-      <c r="E541">
-        <v>0</v>
-      </c>
       <c r="F541" t="b">
         <v>0</v>
       </c>
@@ -22220,15 +21317,6 @@
       <c r="B542" t="s">
         <v>1666</v>
       </c>
-      <c r="C542">
-        <v>0</v>
-      </c>
-      <c r="D542">
-        <v>0</v>
-      </c>
-      <c r="E542">
-        <v>0</v>
-      </c>
       <c r="F542" t="b">
         <v>0</v>
       </c>
@@ -22275,9 +21363,6 @@
       <c r="C544" t="s">
         <v>2099</v>
       </c>
-      <c r="D544">
-        <v>0</v>
-      </c>
       <c r="E544" t="s">
         <v>2079</v>
       </c>
@@ -22301,9 +21386,6 @@
       <c r="C545" t="s">
         <v>2227</v>
       </c>
-      <c r="D545">
-        <v>0</v>
-      </c>
       <c r="E545" t="s">
         <v>2214</v>
       </c>
@@ -22324,15 +21406,6 @@
       <c r="B546" t="s">
         <v>1670</v>
       </c>
-      <c r="C546">
-        <v>0</v>
-      </c>
-      <c r="D546">
-        <v>0</v>
-      </c>
-      <c r="E546">
-        <v>0</v>
-      </c>
       <c r="F546" t="b">
         <v>0</v>
       </c>
@@ -22356,9 +21429,6 @@
       <c r="D547">
         <v>284</v>
       </c>
-      <c r="E547">
-        <v>0</v>
-      </c>
       <c r="F547" t="b">
         <v>0</v>
       </c>
@@ -22454,15 +21524,6 @@
       <c r="B551" t="s">
         <v>1673</v>
       </c>
-      <c r="C551">
-        <v>0</v>
-      </c>
-      <c r="D551">
-        <v>0</v>
-      </c>
-      <c r="E551">
-        <v>0</v>
-      </c>
       <c r="F551" t="b">
         <v>0</v>
       </c>
@@ -22506,9 +21567,6 @@
       <c r="B553" t="s">
         <v>1279</v>
       </c>
-      <c r="C553">
-        <v>0</v>
-      </c>
       <c r="D553">
         <v>253</v>
       </c>
@@ -22535,9 +21593,6 @@
       <c r="C554" t="s">
         <v>2288</v>
       </c>
-      <c r="D554">
-        <v>0</v>
-      </c>
       <c r="E554" t="s">
         <v>2229</v>
       </c>
@@ -22558,9 +21613,6 @@
       <c r="B555" t="s">
         <v>1610</v>
       </c>
-      <c r="C555">
-        <v>0</v>
-      </c>
       <c r="D555">
         <v>253</v>
       </c>
@@ -22587,12 +21639,6 @@
       <c r="C556" t="s">
         <v>2336</v>
       </c>
-      <c r="D556">
-        <v>0</v>
-      </c>
-      <c r="E556">
-        <v>0</v>
-      </c>
       <c r="F556" t="b">
         <v>0</v>
       </c>
@@ -22662,9 +21708,6 @@
       <c r="B559" t="s">
         <v>1676</v>
       </c>
-      <c r="C559">
-        <v>0</v>
-      </c>
       <c r="D559">
         <v>264</v>
       </c>
@@ -22714,12 +21757,6 @@
       <c r="B561" t="s">
         <v>1677</v>
       </c>
-      <c r="C561">
-        <v>0</v>
-      </c>
-      <c r="D561">
-        <v>0</v>
-      </c>
       <c r="E561" t="s">
         <v>2239</v>
       </c>
@@ -22821,9 +21858,6 @@
       <c r="C565" t="s">
         <v>2339</v>
       </c>
-      <c r="D565">
-        <v>0</v>
-      </c>
       <c r="F565" t="b">
         <v>1</v>
       </c>
@@ -22971,9 +22005,6 @@
       <c r="B571" t="s">
         <v>1683</v>
       </c>
-      <c r="C571">
-        <v>0</v>
-      </c>
       <c r="D571">
         <v>409</v>
       </c>
@@ -23075,9 +22106,6 @@
       <c r="B575" t="s">
         <v>1687</v>
       </c>
-      <c r="C575">
-        <v>0</v>
-      </c>
       <c r="D575">
         <v>321</v>
       </c>
@@ -23205,9 +22233,6 @@
       <c r="B580" t="s">
         <v>1692</v>
       </c>
-      <c r="C580">
-        <v>0</v>
-      </c>
       <c r="D580">
         <v>350</v>
       </c>
@@ -23231,9 +22256,6 @@
       <c r="B581" t="s">
         <v>1693</v>
       </c>
-      <c r="C581">
-        <v>0</v>
-      </c>
       <c r="D581">
         <v>356</v>
       </c>
@@ -23309,9 +22331,6 @@
       <c r="B584" t="s">
         <v>1696</v>
       </c>
-      <c r="C584">
-        <v>0</v>
-      </c>
       <c r="D584">
         <v>454</v>
       </c>
@@ -23361,9 +22380,6 @@
       <c r="B586" t="s">
         <v>1698</v>
       </c>
-      <c r="C586">
-        <v>0</v>
-      </c>
       <c r="D586">
         <v>391</v>
       </c>
@@ -23491,9 +22507,6 @@
       <c r="B591" t="s">
         <v>1703</v>
       </c>
-      <c r="C591">
-        <v>0</v>
-      </c>
       <c r="D591">
         <v>360</v>
       </c>
@@ -23575,9 +22588,6 @@
       <c r="D594">
         <v>410</v>
       </c>
-      <c r="E594">
-        <v>0</v>
-      </c>
       <c r="F594" t="b">
         <v>0</v>
       </c>
@@ -23598,12 +22608,6 @@
       <c r="C595" t="s">
         <v>2310</v>
       </c>
-      <c r="D595">
-        <v>0</v>
-      </c>
-      <c r="E595">
-        <v>0</v>
-      </c>
       <c r="F595" t="b">
         <v>0</v>
       </c>
@@ -23624,12 +22628,6 @@
       <c r="C596" t="s">
         <v>2344</v>
       </c>
-      <c r="D596">
-        <v>0</v>
-      </c>
-      <c r="E596">
-        <v>0</v>
-      </c>
       <c r="F596" t="b">
         <v>0</v>
       </c>
@@ -23939,9 +22937,6 @@
       <c r="D608">
         <v>509</v>
       </c>
-      <c r="E608">
-        <v>0</v>
-      </c>
       <c r="F608" t="b">
         <v>0</v>
       </c>
@@ -23965,9 +22960,6 @@
       <c r="D609">
         <v>530</v>
       </c>
-      <c r="E609">
-        <v>0</v>
-      </c>
       <c r="F609" t="b">
         <v>0</v>
       </c>
@@ -24329,9 +23321,6 @@
       <c r="D623">
         <v>508</v>
       </c>
-      <c r="E623">
-        <v>0</v>
-      </c>
       <c r="F623" t="b">
         <v>0</v>
       </c>
@@ -24352,12 +23341,6 @@
       <c r="C624" t="s">
         <v>2356</v>
       </c>
-      <c r="D624">
-        <v>0</v>
-      </c>
-      <c r="E624">
-        <v>0</v>
-      </c>
       <c r="F624" t="b">
         <v>0</v>
       </c>
@@ -24791,9 +23774,6 @@
       <c r="B641" t="s">
         <v>1279</v>
       </c>
-      <c r="C641">
-        <v>0</v>
-      </c>
       <c r="D641">
         <v>203</v>
       </c>
@@ -24817,9 +23797,6 @@
       <c r="B642" t="s">
         <v>1434</v>
       </c>
-      <c r="C642">
-        <v>0</v>
-      </c>
       <c r="D642">
         <v>294</v>
       </c>
@@ -24843,12 +23820,6 @@
       <c r="B643" t="s">
         <v>1738</v>
       </c>
-      <c r="C643">
-        <v>0</v>
-      </c>
-      <c r="D643">
-        <v>0</v>
-      </c>
       <c r="F643" t="b">
         <v>0</v>
       </c>
@@ -24924,9 +23895,6 @@
       <c r="D646">
         <v>942</v>
       </c>
-      <c r="E646">
-        <v>0</v>
-      </c>
       <c r="F646" t="b">
         <v>1</v>
       </c>
@@ -25906,9 +24874,6 @@
       <c r="B684" t="s">
         <v>1401</v>
       </c>
-      <c r="C684">
-        <v>0</v>
-      </c>
       <c r="D684">
         <v>297</v>
       </c>
@@ -25984,12 +24949,6 @@
       <c r="B687" t="s">
         <v>1769</v>
       </c>
-      <c r="C687">
-        <v>0</v>
-      </c>
-      <c r="D687">
-        <v>0</v>
-      </c>
       <c r="E687" t="s">
         <v>2368</v>
       </c>
@@ -26010,14 +24969,8 @@
       <c r="B688" t="s">
         <v>1770</v>
       </c>
-      <c r="C688">
-        <v>0</v>
-      </c>
       <c r="D688">
         <v>236</v>
-      </c>
-      <c r="E688">
-        <v>0</v>
       </c>
       <c r="F688" t="b">
         <v>0</v>
@@ -26042,9 +24995,6 @@
       <c r="D689">
         <v>274</v>
       </c>
-      <c r="E689">
-        <v>0</v>
-      </c>
       <c r="F689" t="b">
         <v>0</v>
       </c>
@@ -26114,9 +25064,6 @@
       <c r="B692" t="s">
         <v>1773</v>
       </c>
-      <c r="C692">
-        <v>0</v>
-      </c>
       <c r="D692">
         <v>297</v>
       </c>
@@ -26244,9 +25191,6 @@
       <c r="B697" t="s">
         <v>1401</v>
       </c>
-      <c r="C697">
-        <v>0</v>
-      </c>
       <c r="D697">
         <v>242</v>
       </c>
@@ -26299,12 +25243,6 @@
       <c r="C699" t="s">
         <v>2218</v>
       </c>
-      <c r="D699">
-        <v>0</v>
-      </c>
-      <c r="E699">
-        <v>0</v>
-      </c>
       <c r="F699" t="b">
         <v>0</v>
       </c>
@@ -26637,12 +25575,6 @@
       <c r="C712" t="s">
         <v>2216</v>
       </c>
-      <c r="D712">
-        <v>0</v>
-      </c>
-      <c r="E712">
-        <v>0</v>
-      </c>
       <c r="F712" t="b">
         <v>0</v>
       </c>
@@ -26822,9 +25754,6 @@
       <c r="D719">
         <v>517</v>
       </c>
-      <c r="E719">
-        <v>0</v>
-      </c>
       <c r="F719" t="b">
         <v>0</v>
       </c>
@@ -26978,9 +25907,6 @@
       <c r="D725">
         <v>402</v>
       </c>
-      <c r="E725">
-        <v>0</v>
-      </c>
       <c r="F725" t="b">
         <v>0</v>
       </c>
@@ -27131,12 +26057,6 @@
       <c r="C731" t="s">
         <v>2390</v>
       </c>
-      <c r="D731">
-        <v>0</v>
-      </c>
-      <c r="E731">
-        <v>0</v>
-      </c>
       <c r="F731" t="b">
         <v>0</v>
       </c>
@@ -27521,12 +26441,6 @@
       <c r="C746" t="s">
         <v>2333</v>
       </c>
-      <c r="D746">
-        <v>0</v>
-      </c>
-      <c r="E746">
-        <v>0</v>
-      </c>
       <c r="F746" t="b">
         <v>0</v>
       </c>
@@ -27570,12 +26484,6 @@
       <c r="B748" t="s">
         <v>1813</v>
       </c>
-      <c r="C748">
-        <v>0</v>
-      </c>
-      <c r="D748">
-        <v>0</v>
-      </c>
       <c r="E748" t="s">
         <v>2295</v>
       </c>
@@ -27729,12 +26637,6 @@
       <c r="C754" t="s">
         <v>2231</v>
       </c>
-      <c r="D754">
-        <v>0</v>
-      </c>
-      <c r="E754">
-        <v>0</v>
-      </c>
       <c r="F754" t="b">
         <v>0</v>
       </c>
@@ -27836,9 +26738,6 @@
       <c r="D758">
         <v>317</v>
       </c>
-      <c r="E758">
-        <v>0</v>
-      </c>
       <c r="F758" t="b">
         <v>0</v>
       </c>
@@ -28064,12 +26963,6 @@
       <c r="B767" t="s">
         <v>1351</v>
       </c>
-      <c r="C767">
-        <v>0</v>
-      </c>
-      <c r="D767">
-        <v>0</v>
-      </c>
       <c r="E767" t="s">
         <v>2566</v>
       </c>
@@ -28093,12 +26986,6 @@
       <c r="C768" t="s">
         <v>2311</v>
       </c>
-      <c r="D768">
-        <v>0</v>
-      </c>
-      <c r="E768">
-        <v>0</v>
-      </c>
       <c r="F768" t="b">
         <v>0</v>
       </c>
@@ -28330,9 +27217,6 @@
       <c r="D777">
         <v>430</v>
       </c>
-      <c r="E777">
-        <v>0</v>
-      </c>
       <c r="F777" t="b">
         <v>0</v>
       </c>
@@ -28714,9 +27598,6 @@
       <c r="B792" t="s">
         <v>1838</v>
       </c>
-      <c r="C792">
-        <v>0</v>
-      </c>
       <c r="D792">
         <v>357</v>
       </c>
@@ -28948,9 +27829,6 @@
       <c r="B801" t="s">
         <v>1846</v>
       </c>
-      <c r="C801">
-        <v>0</v>
-      </c>
       <c r="D801" t="s">
         <v>2132</v>
       </c>
@@ -28974,9 +27852,6 @@
       <c r="B802" t="s">
         <v>1847</v>
       </c>
-      <c r="C802">
-        <v>0</v>
-      </c>
       <c r="D802" t="s">
         <v>2132</v>
       </c>
@@ -29058,9 +27933,6 @@
       <c r="D805">
         <v>577</v>
       </c>
-      <c r="E805">
-        <v>0</v>
-      </c>
       <c r="F805" t="b">
         <v>0</v>
       </c>
@@ -29318,9 +28190,6 @@
       <c r="D815">
         <v>434</v>
       </c>
-      <c r="E815">
-        <v>0</v>
-      </c>
       <c r="F815" t="b">
         <v>0</v>
       </c>
@@ -29364,9 +28233,6 @@
       <c r="B817" t="s">
         <v>1858</v>
       </c>
-      <c r="C817">
-        <v>0</v>
-      </c>
       <c r="D817">
         <v>440</v>
       </c>
@@ -29572,12 +28438,6 @@
       <c r="B825" t="s">
         <v>1464</v>
       </c>
-      <c r="C825">
-        <v>0</v>
-      </c>
-      <c r="D825">
-        <v>0</v>
-      </c>
       <c r="E825" t="s">
         <v>2106</v>
       </c>
@@ -29601,12 +28461,6 @@
       <c r="C826" t="s">
         <v>2337</v>
       </c>
-      <c r="D826">
-        <v>0</v>
-      </c>
-      <c r="E826">
-        <v>0</v>
-      </c>
       <c r="F826" t="b">
         <v>0</v>
       </c>
@@ -29630,9 +28484,6 @@
       <c r="D827">
         <v>220</v>
       </c>
-      <c r="E827">
-        <v>0</v>
-      </c>
       <c r="F827" t="b">
         <v>0</v>
       </c>
@@ -29653,12 +28504,6 @@
       <c r="C828" t="s">
         <v>2375</v>
       </c>
-      <c r="D828">
-        <v>0</v>
-      </c>
-      <c r="E828">
-        <v>0</v>
-      </c>
       <c r="F828" t="b">
         <v>0</v>
       </c>
@@ -29832,12 +28677,6 @@
       <c r="B835" t="s">
         <v>1563</v>
       </c>
-      <c r="C835">
-        <v>0</v>
-      </c>
-      <c r="D835">
-        <v>0</v>
-      </c>
       <c r="E835" t="s">
         <v>2572</v>
       </c>
@@ -29884,9 +28723,6 @@
       <c r="B837" t="s">
         <v>1865</v>
       </c>
-      <c r="C837">
-        <v>0</v>
-      </c>
       <c r="D837">
         <v>279</v>
       </c>
@@ -29910,9 +28746,6 @@
       <c r="B838" t="s">
         <v>1866</v>
       </c>
-      <c r="C838">
-        <v>0</v>
-      </c>
       <c r="D838">
         <v>270</v>
       </c>
@@ -29939,12 +28772,6 @@
       <c r="C839" t="s">
         <v>2196</v>
       </c>
-      <c r="D839">
-        <v>0</v>
-      </c>
-      <c r="E839">
-        <v>0</v>
-      </c>
       <c r="F839" t="b">
         <v>0</v>
       </c>
@@ -30040,12 +28867,6 @@
       <c r="B843" t="s">
         <v>1870</v>
       </c>
-      <c r="C843">
-        <v>0</v>
-      </c>
-      <c r="D843">
-        <v>0</v>
-      </c>
       <c r="E843" t="s">
         <v>2193</v>
       </c>
@@ -30069,12 +28890,6 @@
       <c r="C844" t="s">
         <v>2295</v>
       </c>
-      <c r="D844">
-        <v>0</v>
-      </c>
-      <c r="E844">
-        <v>0</v>
-      </c>
       <c r="F844" t="b">
         <v>0</v>
       </c>
@@ -30326,9 +29141,6 @@
       <c r="B854" t="s">
         <v>1877</v>
       </c>
-      <c r="C854">
-        <v>0</v>
-      </c>
       <c r="D854">
         <v>412</v>
       </c>
@@ -30352,9 +29164,6 @@
       <c r="B855" t="s">
         <v>1878</v>
       </c>
-      <c r="C855">
-        <v>0</v>
-      </c>
       <c r="D855">
         <v>327</v>
       </c>
@@ -30436,9 +29245,6 @@
       <c r="D858">
         <v>225</v>
       </c>
-      <c r="E858">
-        <v>0</v>
-      </c>
       <c r="F858" t="b">
         <v>0</v>
       </c>
@@ -30459,12 +29265,6 @@
       <c r="C859" t="s">
         <v>2222</v>
       </c>
-      <c r="D859">
-        <v>0</v>
-      </c>
-      <c r="E859">
-        <v>0</v>
-      </c>
       <c r="F859" t="b">
         <v>0</v>
       </c>
@@ -30485,12 +29285,6 @@
       <c r="C860" t="s">
         <v>2286</v>
       </c>
-      <c r="D860">
-        <v>0</v>
-      </c>
-      <c r="E860">
-        <v>0</v>
-      </c>
       <c r="F860" t="b">
         <v>0</v>
       </c>
@@ -30514,9 +29308,6 @@
       <c r="D861">
         <v>415</v>
       </c>
-      <c r="E861">
-        <v>0</v>
-      </c>
       <c r="F861" t="b">
         <v>0</v>
       </c>
@@ -30563,12 +29354,6 @@
       <c r="C863" t="s">
         <v>2354</v>
       </c>
-      <c r="D863">
-        <v>0</v>
-      </c>
-      <c r="E863">
-        <v>0</v>
-      </c>
       <c r="F863" t="b">
         <v>0</v>
       </c>
@@ -30644,9 +29429,6 @@
       <c r="D866">
         <v>316</v>
       </c>
-      <c r="E866">
-        <v>0</v>
-      </c>
       <c r="F866" t="b">
         <v>0</v>
       </c>
@@ -30664,15 +29446,6 @@
       <c r="B867" t="s">
         <v>1884</v>
       </c>
-      <c r="C867">
-        <v>0</v>
-      </c>
-      <c r="D867">
-        <v>0</v>
-      </c>
-      <c r="E867">
-        <v>0</v>
-      </c>
       <c r="F867" t="b">
         <v>0</v>
       </c>
@@ -30693,12 +29466,6 @@
       <c r="C868" t="s">
         <v>2244</v>
       </c>
-      <c r="D868">
-        <v>0</v>
-      </c>
-      <c r="E868">
-        <v>0</v>
-      </c>
       <c r="F868" t="b">
         <v>0</v>
       </c>
@@ -30716,12 +29483,6 @@
       <c r="B869" t="s">
         <v>1526</v>
       </c>
-      <c r="C869">
-        <v>0</v>
-      </c>
-      <c r="D869">
-        <v>0</v>
-      </c>
       <c r="E869" t="s">
         <v>2106</v>
       </c>
@@ -30846,12 +29607,6 @@
       <c r="B874" t="s">
         <v>1889</v>
       </c>
-      <c r="C874">
-        <v>0</v>
-      </c>
-      <c r="D874">
-        <v>0</v>
-      </c>
       <c r="E874" t="s">
         <v>2336</v>
       </c>
@@ -30956,9 +29711,6 @@
       <c r="D878">
         <v>300</v>
       </c>
-      <c r="E878">
-        <v>0</v>
-      </c>
       <c r="F878" t="b">
         <v>0</v>
       </c>
@@ -30976,12 +29728,6 @@
       <c r="B879" t="s">
         <v>1277</v>
       </c>
-      <c r="C879">
-        <v>0</v>
-      </c>
-      <c r="D879">
-        <v>0</v>
-      </c>
       <c r="E879" t="s">
         <v>2190</v>
       </c>
@@ -31002,12 +29748,6 @@
       <c r="B880" t="s">
         <v>1894</v>
       </c>
-      <c r="C880">
-        <v>0</v>
-      </c>
-      <c r="D880">
-        <v>0</v>
-      </c>
       <c r="E880" t="s">
         <v>2294</v>
       </c>
@@ -31028,12 +29768,6 @@
       <c r="B881" t="s">
         <v>1282</v>
       </c>
-      <c r="C881">
-        <v>0</v>
-      </c>
-      <c r="D881">
-        <v>0</v>
-      </c>
       <c r="E881" t="s">
         <v>2233</v>
       </c>
@@ -31054,12 +29788,6 @@
       <c r="B882" t="s">
         <v>1260</v>
       </c>
-      <c r="C882">
-        <v>0</v>
-      </c>
-      <c r="D882">
-        <v>0</v>
-      </c>
       <c r="E882" t="s">
         <v>2333</v>
       </c>
@@ -31080,12 +29808,6 @@
       <c r="B883" t="s">
         <v>1895</v>
       </c>
-      <c r="C883">
-        <v>0</v>
-      </c>
-      <c r="D883">
-        <v>0</v>
-      </c>
       <c r="E883" t="s">
         <v>2504</v>
       </c>
@@ -31106,12 +29828,6 @@
       <c r="B884" t="s">
         <v>1896</v>
       </c>
-      <c r="C884">
-        <v>0</v>
-      </c>
-      <c r="D884">
-        <v>0</v>
-      </c>
       <c r="E884" t="s">
         <v>2552</v>
       </c>
@@ -31132,12 +29848,6 @@
       <c r="B885" t="s">
         <v>1897</v>
       </c>
-      <c r="C885">
-        <v>0</v>
-      </c>
-      <c r="D885">
-        <v>0</v>
-      </c>
       <c r="E885" t="s">
         <v>2289</v>
       </c>
@@ -31158,12 +29868,6 @@
       <c r="B886" t="s">
         <v>1279</v>
       </c>
-      <c r="C886">
-        <v>0</v>
-      </c>
-      <c r="D886">
-        <v>0</v>
-      </c>
       <c r="E886" t="s">
         <v>2574</v>
       </c>
@@ -31184,12 +29888,6 @@
       <c r="B887" t="s">
         <v>1898</v>
       </c>
-      <c r="C887">
-        <v>0</v>
-      </c>
-      <c r="D887">
-        <v>0</v>
-      </c>
       <c r="E887" t="s">
         <v>2322</v>
       </c>
@@ -31210,12 +29908,6 @@
       <c r="B888" t="s">
         <v>1899</v>
       </c>
-      <c r="C888">
-        <v>0</v>
-      </c>
-      <c r="D888">
-        <v>0</v>
-      </c>
       <c r="E888" t="s">
         <v>2575</v>
       </c>
@@ -31236,12 +29928,6 @@
       <c r="B889" t="s">
         <v>1222</v>
       </c>
-      <c r="C889">
-        <v>0</v>
-      </c>
-      <c r="D889">
-        <v>0</v>
-      </c>
       <c r="E889" t="s">
         <v>2502</v>
       </c>
@@ -31262,12 +29948,6 @@
       <c r="B890" t="s">
         <v>1394</v>
       </c>
-      <c r="C890">
-        <v>0</v>
-      </c>
-      <c r="D890">
-        <v>0</v>
-      </c>
       <c r="E890" t="s">
         <v>2337</v>
       </c>
@@ -31288,12 +29968,6 @@
       <c r="B891" t="s">
         <v>1358</v>
       </c>
-      <c r="C891">
-        <v>0</v>
-      </c>
-      <c r="D891">
-        <v>0</v>
-      </c>
       <c r="E891" t="s">
         <v>2234</v>
       </c>
@@ -31314,12 +29988,6 @@
       <c r="B892" t="s">
         <v>1388</v>
       </c>
-      <c r="C892">
-        <v>0</v>
-      </c>
-      <c r="D892">
-        <v>0</v>
-      </c>
       <c r="E892" t="s">
         <v>2552</v>
       </c>
@@ -31340,12 +30008,6 @@
       <c r="B893" t="s">
         <v>1900</v>
       </c>
-      <c r="C893">
-        <v>0</v>
-      </c>
-      <c r="D893">
-        <v>0</v>
-      </c>
       <c r="E893" t="s">
         <v>2322</v>
       </c>
@@ -31366,12 +30028,6 @@
       <c r="B894" t="s">
         <v>1901</v>
       </c>
-      <c r="C894">
-        <v>0</v>
-      </c>
-      <c r="D894">
-        <v>0</v>
-      </c>
       <c r="E894" t="s">
         <v>2294</v>
       </c>
@@ -31392,12 +30048,6 @@
       <c r="B895" t="s">
         <v>1902</v>
       </c>
-      <c r="C895">
-        <v>0</v>
-      </c>
-      <c r="D895">
-        <v>0</v>
-      </c>
       <c r="E895" t="s">
         <v>2234</v>
       </c>
@@ -31418,12 +30068,6 @@
       <c r="B896" t="s">
         <v>1903</v>
       </c>
-      <c r="C896">
-        <v>0</v>
-      </c>
-      <c r="D896">
-        <v>0</v>
-      </c>
       <c r="E896" t="s">
         <v>2333</v>
       </c>
@@ -31444,12 +30088,6 @@
       <c r="B897" t="s">
         <v>1428</v>
       </c>
-      <c r="C897">
-        <v>0</v>
-      </c>
-      <c r="D897">
-        <v>0</v>
-      </c>
       <c r="E897" t="s">
         <v>2576</v>
       </c>
@@ -31470,12 +30108,6 @@
       <c r="B898" t="s">
         <v>1904</v>
       </c>
-      <c r="C898">
-        <v>0</v>
-      </c>
-      <c r="D898">
-        <v>0</v>
-      </c>
       <c r="E898" t="s">
         <v>2234</v>
       </c>
@@ -31496,12 +30128,6 @@
       <c r="B899" t="s">
         <v>1905</v>
       </c>
-      <c r="C899">
-        <v>0</v>
-      </c>
-      <c r="D899">
-        <v>0</v>
-      </c>
       <c r="E899" t="s">
         <v>2090</v>
       </c>
@@ -31522,12 +30148,6 @@
       <c r="B900" t="s">
         <v>1906</v>
       </c>
-      <c r="C900">
-        <v>0</v>
-      </c>
-      <c r="D900">
-        <v>0</v>
-      </c>
       <c r="E900" t="s">
         <v>2410</v>
       </c>
@@ -31548,12 +30168,6 @@
       <c r="B901" t="s">
         <v>1907</v>
       </c>
-      <c r="C901">
-        <v>0</v>
-      </c>
-      <c r="D901">
-        <v>0</v>
-      </c>
       <c r="E901" t="s">
         <v>2322</v>
       </c>
@@ -31574,12 +30188,6 @@
       <c r="B902" t="s">
         <v>1908</v>
       </c>
-      <c r="C902">
-        <v>0</v>
-      </c>
-      <c r="D902">
-        <v>0</v>
-      </c>
       <c r="E902" t="s">
         <v>2322</v>
       </c>
@@ -31652,12 +30260,6 @@
       <c r="B905" t="s">
         <v>1911</v>
       </c>
-      <c r="C905">
-        <v>0</v>
-      </c>
-      <c r="D905">
-        <v>0</v>
-      </c>
       <c r="E905" t="s">
         <v>2335</v>
       </c>
@@ -31730,12 +30332,6 @@
       <c r="B908" t="s">
         <v>1914</v>
       </c>
-      <c r="C908">
-        <v>0</v>
-      </c>
-      <c r="D908">
-        <v>0</v>
-      </c>
       <c r="E908" t="s">
         <v>2330</v>
       </c>
@@ -31834,12 +30430,6 @@
       <c r="B912" t="s">
         <v>1392</v>
       </c>
-      <c r="C912">
-        <v>0</v>
-      </c>
-      <c r="D912">
-        <v>0</v>
-      </c>
       <c r="F912" t="b">
         <v>0</v>
       </c>
@@ -32117,12 +30707,6 @@
       <c r="C923" t="s">
         <v>2410</v>
       </c>
-      <c r="D923">
-        <v>0</v>
-      </c>
-      <c r="E923">
-        <v>0</v>
-      </c>
       <c r="F923" t="b">
         <v>0</v>
       </c>
@@ -32192,12 +30776,6 @@
       <c r="B926" t="s">
         <v>1925</v>
       </c>
-      <c r="C926">
-        <v>0</v>
-      </c>
-      <c r="D926">
-        <v>0</v>
-      </c>
       <c r="E926" t="s">
         <v>2132</v>
       </c>
@@ -32452,9 +31030,6 @@
       <c r="B936" t="s">
         <v>1932</v>
       </c>
-      <c r="C936">
-        <v>0</v>
-      </c>
       <c r="D936">
         <v>555</v>
       </c>
@@ -32530,9 +31105,6 @@
       <c r="B939" t="s">
         <v>1324</v>
       </c>
-      <c r="C939">
-        <v>0</v>
-      </c>
       <c r="D939">
         <v>602</v>
       </c>
@@ -32608,9 +31180,6 @@
       <c r="B942" t="s">
         <v>1936</v>
       </c>
-      <c r="C942">
-        <v>0</v>
-      </c>
       <c r="D942">
         <v>602</v>
       </c>
@@ -32790,9 +31359,6 @@
       <c r="B949" t="s">
         <v>1942</v>
       </c>
-      <c r="C949">
-        <v>0</v>
-      </c>
       <c r="D949">
         <v>526</v>
       </c>
@@ -33056,9 +31622,6 @@
       <c r="D959">
         <v>489</v>
       </c>
-      <c r="E959">
-        <v>0</v>
-      </c>
       <c r="F959" t="b">
         <v>0</v>
       </c>
@@ -33082,9 +31645,6 @@
       <c r="D960">
         <v>393</v>
       </c>
-      <c r="E960">
-        <v>0</v>
-      </c>
       <c r="F960" t="b">
         <v>0</v>
       </c>
@@ -33365,12 +31925,6 @@
       <c r="C971" t="s">
         <v>2161</v>
       </c>
-      <c r="D971">
-        <v>0</v>
-      </c>
-      <c r="E971">
-        <v>0</v>
-      </c>
       <c r="F971" t="b">
         <v>0</v>
       </c>
@@ -33466,9 +32020,6 @@
       <c r="B975" t="s">
         <v>1960</v>
       </c>
-      <c r="C975">
-        <v>0</v>
-      </c>
       <c r="D975">
         <v>555</v>
       </c>
@@ -33492,9 +32043,6 @@
       <c r="B976" t="s">
         <v>1961</v>
       </c>
-      <c r="C976">
-        <v>0</v>
-      </c>
       <c r="D976">
         <v>498</v>
       </c>
@@ -33778,14 +32326,8 @@
       <c r="B987" t="s">
         <v>1970</v>
       </c>
-      <c r="C987">
-        <v>0</v>
-      </c>
       <c r="D987">
         <v>352</v>
-      </c>
-      <c r="E987">
-        <v>0</v>
       </c>
       <c r="F987" t="b">
         <v>0</v>
@@ -33804,14 +32346,8 @@
       <c r="B988" t="s">
         <v>1971</v>
       </c>
-      <c r="C988">
-        <v>0</v>
-      </c>
       <c r="D988">
         <v>529</v>
-      </c>
-      <c r="E988">
-        <v>0</v>
       </c>
       <c r="F988" t="b">
         <v>0</v>
@@ -33830,14 +32366,8 @@
       <c r="B989" t="s">
         <v>1972</v>
       </c>
-      <c r="C989">
-        <v>0</v>
-      </c>
       <c r="D989">
         <v>337</v>
-      </c>
-      <c r="E989">
-        <v>0</v>
       </c>
       <c r="F989" t="b">
         <v>0</v>
@@ -33856,14 +32386,8 @@
       <c r="B990" t="s">
         <v>1973</v>
       </c>
-      <c r="C990">
-        <v>0</v>
-      </c>
       <c r="D990">
         <v>337</v>
-      </c>
-      <c r="E990">
-        <v>0</v>
       </c>
       <c r="F990" t="b">
         <v>0</v>
@@ -33882,14 +32406,8 @@
       <c r="B991" t="s">
         <v>1974</v>
       </c>
-      <c r="C991">
-        <v>0</v>
-      </c>
       <c r="D991">
         <v>342</v>
-      </c>
-      <c r="E991">
-        <v>0</v>
       </c>
       <c r="F991" t="b">
         <v>0</v>
@@ -33908,14 +32426,8 @@
       <c r="B992" t="s">
         <v>1975</v>
       </c>
-      <c r="C992">
-        <v>0</v>
-      </c>
       <c r="D992">
         <v>498</v>
-      </c>
-      <c r="E992">
-        <v>0</v>
       </c>
       <c r="F992" t="b">
         <v>0</v>
@@ -33934,14 +32446,8 @@
       <c r="B993" t="s">
         <v>1976</v>
       </c>
-      <c r="C993">
-        <v>0</v>
-      </c>
       <c r="D993">
         <v>335</v>
-      </c>
-      <c r="E993">
-        <v>0</v>
       </c>
       <c r="F993" t="b">
         <v>0</v>
@@ -33960,14 +32466,8 @@
       <c r="B994" t="s">
         <v>1977</v>
       </c>
-      <c r="C994">
-        <v>0</v>
-      </c>
       <c r="D994">
         <v>335</v>
-      </c>
-      <c r="E994">
-        <v>0</v>
       </c>
       <c r="F994" t="b">
         <v>0</v>
@@ -33986,14 +32486,8 @@
       <c r="B995" t="s">
         <v>1978</v>
       </c>
-      <c r="C995">
-        <v>0</v>
-      </c>
       <c r="D995">
         <v>499</v>
-      </c>
-      <c r="E995">
-        <v>0</v>
       </c>
       <c r="F995" t="b">
         <v>0</v>
@@ -34012,14 +32506,8 @@
       <c r="B996" t="s">
         <v>1979</v>
       </c>
-      <c r="C996">
-        <v>0</v>
-      </c>
       <c r="D996">
         <v>534</v>
-      </c>
-      <c r="E996">
-        <v>0</v>
       </c>
       <c r="F996" t="b">
         <v>0</v>
@@ -34038,14 +32526,8 @@
       <c r="B997" t="s">
         <v>1980</v>
       </c>
-      <c r="C997">
-        <v>0</v>
-      </c>
       <c r="D997">
         <v>534</v>
-      </c>
-      <c r="E997">
-        <v>0</v>
       </c>
       <c r="F997" t="b">
         <v>0</v>
@@ -34064,14 +32546,8 @@
       <c r="B998" t="s">
         <v>1981</v>
       </c>
-      <c r="C998">
-        <v>0</v>
-      </c>
       <c r="D998">
         <v>566</v>
-      </c>
-      <c r="E998">
-        <v>0</v>
       </c>
       <c r="F998" t="b">
         <v>0</v>
@@ -34090,14 +32566,8 @@
       <c r="B999" t="s">
         <v>1982</v>
       </c>
-      <c r="C999">
-        <v>0</v>
-      </c>
       <c r="D999">
         <v>534</v>
-      </c>
-      <c r="E999">
-        <v>0</v>
       </c>
       <c r="F999" t="b">
         <v>0</v>
@@ -34116,14 +32586,8 @@
       <c r="B1000" t="s">
         <v>1983</v>
       </c>
-      <c r="C1000">
-        <v>0</v>
-      </c>
       <c r="D1000">
         <v>534</v>
-      </c>
-      <c r="E1000">
-        <v>0</v>
       </c>
       <c r="F1000" t="b">
         <v>0</v>
@@ -34142,14 +32606,8 @@
       <c r="B1001" t="s">
         <v>1984</v>
       </c>
-      <c r="C1001">
-        <v>0</v>
-      </c>
       <c r="D1001">
         <v>534</v>
-      </c>
-      <c r="E1001">
-        <v>0</v>
       </c>
       <c r="F1001" t="b">
         <v>0</v>
@@ -34168,14 +32626,8 @@
       <c r="B1002" t="s">
         <v>1985</v>
       </c>
-      <c r="C1002">
-        <v>0</v>
-      </c>
       <c r="D1002">
         <v>498</v>
-      </c>
-      <c r="E1002">
-        <v>0</v>
       </c>
       <c r="F1002" t="b">
         <v>0</v>
@@ -34194,14 +32646,8 @@
       <c r="B1003" t="s">
         <v>1986</v>
       </c>
-      <c r="C1003">
-        <v>0</v>
-      </c>
       <c r="D1003">
         <v>349</v>
-      </c>
-      <c r="E1003">
-        <v>0</v>
       </c>
       <c r="F1003" t="b">
         <v>0</v>
@@ -34220,14 +32666,8 @@
       <c r="B1004" t="s">
         <v>1987</v>
       </c>
-      <c r="C1004">
-        <v>0</v>
-      </c>
       <c r="D1004">
         <v>349</v>
-      </c>
-      <c r="E1004">
-        <v>0</v>
       </c>
       <c r="F1004" t="b">
         <v>0</v>
@@ -34246,14 +32686,8 @@
       <c r="B1005" t="s">
         <v>1988</v>
       </c>
-      <c r="C1005">
-        <v>0</v>
-      </c>
       <c r="D1005">
         <v>349</v>
-      </c>
-      <c r="E1005">
-        <v>0</v>
       </c>
       <c r="F1005" t="b">
         <v>0</v>
@@ -34272,14 +32706,8 @@
       <c r="B1006" t="s">
         <v>1989</v>
       </c>
-      <c r="C1006">
-        <v>0</v>
-      </c>
       <c r="D1006">
         <v>529</v>
-      </c>
-      <c r="E1006">
-        <v>0</v>
       </c>
       <c r="F1006" t="b">
         <v>0</v>
@@ -34298,14 +32726,8 @@
       <c r="B1007" t="s">
         <v>1990</v>
       </c>
-      <c r="C1007">
-        <v>0</v>
-      </c>
       <c r="D1007">
         <v>498</v>
-      </c>
-      <c r="E1007">
-        <v>0</v>
       </c>
       <c r="F1007" t="b">
         <v>0</v>
@@ -34324,14 +32746,8 @@
       <c r="B1008" t="s">
         <v>1991</v>
       </c>
-      <c r="C1008">
-        <v>0</v>
-      </c>
       <c r="D1008">
         <v>499</v>
-      </c>
-      <c r="E1008">
-        <v>0</v>
       </c>
       <c r="F1008" t="b">
         <v>0</v>
@@ -34350,14 +32766,8 @@
       <c r="B1009" t="s">
         <v>1992</v>
       </c>
-      <c r="C1009">
-        <v>0</v>
-      </c>
       <c r="D1009">
         <v>498</v>
-      </c>
-      <c r="E1009">
-        <v>0</v>
       </c>
       <c r="F1009" t="b">
         <v>0</v>
@@ -34376,14 +32786,8 @@
       <c r="B1010" t="s">
         <v>1993</v>
       </c>
-      <c r="C1010">
-        <v>0</v>
-      </c>
       <c r="D1010" t="s">
         <v>2455</v>
-      </c>
-      <c r="E1010">
-        <v>0</v>
       </c>
       <c r="F1010" t="b">
         <v>0</v>
@@ -34402,14 +32806,8 @@
       <c r="B1011" t="s">
         <v>1994</v>
       </c>
-      <c r="C1011">
-        <v>0</v>
-      </c>
       <c r="D1011">
         <v>498</v>
-      </c>
-      <c r="E1011">
-        <v>0</v>
       </c>
       <c r="F1011" t="b">
         <v>0</v>
@@ -34428,14 +32826,8 @@
       <c r="B1012" t="s">
         <v>1995</v>
       </c>
-      <c r="C1012">
-        <v>0</v>
-      </c>
       <c r="D1012" t="s">
         <v>2456</v>
-      </c>
-      <c r="E1012">
-        <v>0</v>
       </c>
       <c r="F1012" t="b">
         <v>0</v>
@@ -34454,14 +32846,8 @@
       <c r="B1013" t="s">
         <v>1996</v>
       </c>
-      <c r="C1013">
-        <v>0</v>
-      </c>
       <c r="D1013">
         <v>521</v>
-      </c>
-      <c r="E1013">
-        <v>0</v>
       </c>
       <c r="F1013" t="b">
         <v>0</v>
@@ -34480,14 +32866,8 @@
       <c r="B1014" t="s">
         <v>1997</v>
       </c>
-      <c r="C1014">
-        <v>0</v>
-      </c>
       <c r="D1014">
         <v>521</v>
-      </c>
-      <c r="E1014">
-        <v>0</v>
       </c>
       <c r="F1014" t="b">
         <v>0</v>
@@ -34506,14 +32886,8 @@
       <c r="B1015" t="s">
         <v>1998</v>
       </c>
-      <c r="C1015">
-        <v>0</v>
-      </c>
       <c r="D1015">
         <v>529</v>
-      </c>
-      <c r="E1015">
-        <v>0</v>
       </c>
       <c r="F1015" t="b">
         <v>0</v>
@@ -34532,14 +32906,8 @@
       <c r="B1016" t="s">
         <v>1999</v>
       </c>
-      <c r="C1016">
-        <v>0</v>
-      </c>
       <c r="D1016" t="s">
         <v>2427</v>
-      </c>
-      <c r="E1016">
-        <v>0</v>
       </c>
       <c r="F1016" t="b">
         <v>0</v>
@@ -34558,14 +32926,8 @@
       <c r="B1017" t="s">
         <v>2000</v>
       </c>
-      <c r="C1017">
-        <v>0</v>
-      </c>
       <c r="D1017">
         <v>521</v>
-      </c>
-      <c r="E1017">
-        <v>0</v>
       </c>
       <c r="F1017" t="b">
         <v>0</v>
@@ -34584,14 +32946,8 @@
       <c r="B1018" t="s">
         <v>2001</v>
       </c>
-      <c r="C1018">
-        <v>0</v>
-      </c>
       <c r="D1018">
         <v>529</v>
-      </c>
-      <c r="E1018">
-        <v>0</v>
       </c>
       <c r="F1018" t="b">
         <v>0</v>
@@ -34610,14 +32966,8 @@
       <c r="B1019" t="s">
         <v>2002</v>
       </c>
-      <c r="C1019">
-        <v>0</v>
-      </c>
       <c r="D1019">
         <v>352</v>
-      </c>
-      <c r="E1019">
-        <v>0</v>
       </c>
       <c r="F1019" t="b">
         <v>0</v>
@@ -34636,14 +32986,8 @@
       <c r="B1020" t="s">
         <v>2003</v>
       </c>
-      <c r="C1020">
-        <v>0</v>
-      </c>
       <c r="D1020">
         <v>498</v>
-      </c>
-      <c r="E1020">
-        <v>0</v>
       </c>
       <c r="F1020" t="b">
         <v>0</v>
@@ -34662,14 +33006,8 @@
       <c r="B1021" t="s">
         <v>2004</v>
       </c>
-      <c r="C1021">
-        <v>0</v>
-      </c>
       <c r="D1021">
         <v>529</v>
-      </c>
-      <c r="E1021">
-        <v>0</v>
       </c>
       <c r="F1021" t="b">
         <v>0</v>
@@ -34688,14 +33026,8 @@
       <c r="B1022" t="s">
         <v>2005</v>
       </c>
-      <c r="C1022">
-        <v>0</v>
-      </c>
       <c r="D1022">
         <v>529</v>
-      </c>
-      <c r="E1022">
-        <v>0</v>
       </c>
       <c r="F1022" t="b">
         <v>0</v>
@@ -34714,14 +33046,8 @@
       <c r="B1023" t="s">
         <v>2006</v>
       </c>
-      <c r="C1023">
-        <v>0</v>
-      </c>
       <c r="D1023">
         <v>529</v>
-      </c>
-      <c r="E1023">
-        <v>0</v>
       </c>
       <c r="F1023" t="b">
         <v>0</v>
@@ -34740,14 +33066,8 @@
       <c r="B1024" t="s">
         <v>2007</v>
       </c>
-      <c r="C1024">
-        <v>0</v>
-      </c>
       <c r="D1024">
         <v>529</v>
-      </c>
-      <c r="E1024">
-        <v>0</v>
       </c>
       <c r="F1024" t="b">
         <v>0</v>
@@ -34766,14 +33086,8 @@
       <c r="B1025" t="s">
         <v>2008</v>
       </c>
-      <c r="C1025">
-        <v>0</v>
-      </c>
       <c r="D1025">
         <v>529</v>
-      </c>
-      <c r="E1025">
-        <v>0</v>
       </c>
       <c r="F1025" t="b">
         <v>0</v>
@@ -34792,14 +33106,8 @@
       <c r="B1026" t="s">
         <v>2009</v>
       </c>
-      <c r="C1026">
-        <v>0</v>
-      </c>
       <c r="D1026">
         <v>334</v>
-      </c>
-      <c r="E1026">
-        <v>0</v>
       </c>
       <c r="F1026" t="b">
         <v>0</v>
@@ -34818,14 +33126,8 @@
       <c r="B1027" t="s">
         <v>2010</v>
       </c>
-      <c r="C1027">
-        <v>0</v>
-      </c>
       <c r="D1027">
         <v>499</v>
-      </c>
-      <c r="E1027">
-        <v>0</v>
       </c>
       <c r="F1027" t="b">
         <v>0</v>
@@ -34844,14 +33146,8 @@
       <c r="B1028" t="s">
         <v>2011</v>
       </c>
-      <c r="C1028">
-        <v>0</v>
-      </c>
       <c r="D1028">
         <v>337</v>
-      </c>
-      <c r="E1028">
-        <v>0</v>
       </c>
       <c r="F1028" t="b">
         <v>0</v>
@@ -34870,14 +33166,8 @@
       <c r="B1029" t="s">
         <v>2012</v>
       </c>
-      <c r="C1029">
-        <v>0</v>
-      </c>
       <c r="D1029">
         <v>335</v>
-      </c>
-      <c r="E1029">
-        <v>0</v>
       </c>
       <c r="F1029" t="b">
         <v>0</v>
@@ -34896,14 +33186,8 @@
       <c r="B1030" t="s">
         <v>2013</v>
       </c>
-      <c r="C1030">
-        <v>0</v>
-      </c>
       <c r="D1030">
         <v>529</v>
-      </c>
-      <c r="E1030">
-        <v>0</v>
       </c>
       <c r="F1030" t="b">
         <v>0</v>
@@ -34922,14 +33206,8 @@
       <c r="B1031" t="s">
         <v>2014</v>
       </c>
-      <c r="C1031">
-        <v>0</v>
-      </c>
       <c r="D1031">
         <v>335</v>
-      </c>
-      <c r="E1031">
-        <v>0</v>
       </c>
       <c r="F1031" t="b">
         <v>0</v>
@@ -34948,15 +33226,6 @@
       <c r="B1032" t="s">
         <v>2015</v>
       </c>
-      <c r="C1032">
-        <v>0</v>
-      </c>
-      <c r="D1032">
-        <v>0</v>
-      </c>
-      <c r="E1032">
-        <v>0</v>
-      </c>
       <c r="F1032" t="b">
         <v>0</v>
       </c>
@@ -34974,14 +33243,8 @@
       <c r="B1033" t="s">
         <v>2016</v>
       </c>
-      <c r="C1033">
-        <v>0</v>
-      </c>
       <c r="D1033">
         <v>342</v>
-      </c>
-      <c r="E1033">
-        <v>0</v>
       </c>
       <c r="F1033" t="b">
         <v>0</v>
@@ -35000,14 +33263,8 @@
       <c r="B1034" t="s">
         <v>2017</v>
       </c>
-      <c r="C1034">
-        <v>0</v>
-      </c>
       <c r="D1034">
         <v>566</v>
-      </c>
-      <c r="E1034">
-        <v>0</v>
       </c>
       <c r="F1034" t="b">
         <v>0</v>
@@ -35026,14 +33283,8 @@
       <c r="B1035" t="s">
         <v>2018</v>
       </c>
-      <c r="C1035">
-        <v>0</v>
-      </c>
       <c r="D1035">
         <v>566</v>
-      </c>
-      <c r="E1035">
-        <v>0</v>
       </c>
       <c r="F1035" t="b">
         <v>0</v>
@@ -35052,14 +33303,8 @@
       <c r="B1036" t="s">
         <v>2019</v>
       </c>
-      <c r="C1036">
-        <v>0</v>
-      </c>
       <c r="D1036">
         <v>566</v>
-      </c>
-      <c r="E1036">
-        <v>0</v>
       </c>
       <c r="F1036" t="b">
         <v>0</v>
@@ -35078,14 +33323,8 @@
       <c r="B1037" t="s">
         <v>2020</v>
       </c>
-      <c r="C1037">
-        <v>0</v>
-      </c>
       <c r="D1037">
         <v>499</v>
-      </c>
-      <c r="E1037">
-        <v>0</v>
       </c>
       <c r="F1037" t="b">
         <v>0</v>
@@ -35104,14 +33343,8 @@
       <c r="B1038" t="s">
         <v>2021</v>
       </c>
-      <c r="C1038">
-        <v>0</v>
-      </c>
       <c r="D1038" t="s">
         <v>2427</v>
-      </c>
-      <c r="E1038">
-        <v>0</v>
       </c>
       <c r="F1038" t="b">
         <v>0</v>
@@ -35130,14 +33363,8 @@
       <c r="B1039" t="s">
         <v>2022</v>
       </c>
-      <c r="C1039">
-        <v>0</v>
-      </c>
       <c r="D1039">
         <v>388</v>
-      </c>
-      <c r="E1039">
-        <v>0</v>
       </c>
       <c r="F1039" t="b">
         <v>0</v>
@@ -35156,14 +33383,8 @@
       <c r="B1040" t="s">
         <v>2023</v>
       </c>
-      <c r="C1040">
-        <v>0</v>
-      </c>
       <c r="D1040">
         <v>388</v>
-      </c>
-      <c r="E1040">
-        <v>0</v>
       </c>
       <c r="F1040" t="b">
         <v>0</v>
@@ -35182,14 +33403,8 @@
       <c r="B1041" t="s">
         <v>2024</v>
       </c>
-      <c r="C1041">
-        <v>0</v>
-      </c>
       <c r="D1041">
         <v>499</v>
-      </c>
-      <c r="E1041">
-        <v>0</v>
       </c>
       <c r="F1041" t="b">
         <v>0</v>
@@ -35208,14 +33423,8 @@
       <c r="B1042" t="s">
         <v>2025</v>
       </c>
-      <c r="C1042">
-        <v>0</v>
-      </c>
       <c r="D1042">
         <v>499</v>
-      </c>
-      <c r="E1042">
-        <v>0</v>
       </c>
       <c r="F1042" t="b">
         <v>0</v>
@@ -35234,14 +33443,8 @@
       <c r="B1043" t="s">
         <v>2026</v>
       </c>
-      <c r="C1043">
-        <v>0</v>
-      </c>
       <c r="D1043">
         <v>342</v>
-      </c>
-      <c r="E1043">
-        <v>0</v>
       </c>
       <c r="F1043" t="b">
         <v>0</v>
@@ -35260,14 +33463,8 @@
       <c r="B1044" t="s">
         <v>2027</v>
       </c>
-      <c r="C1044">
-        <v>0</v>
-      </c>
       <c r="D1044">
         <v>498</v>
-      </c>
-      <c r="E1044">
-        <v>0</v>
       </c>
       <c r="F1044" t="b">
         <v>0</v>
@@ -35286,14 +33483,8 @@
       <c r="B1045" t="s">
         <v>2028</v>
       </c>
-      <c r="C1045">
-        <v>0</v>
-      </c>
       <c r="D1045">
         <v>342</v>
-      </c>
-      <c r="E1045">
-        <v>0</v>
       </c>
       <c r="F1045" t="b">
         <v>0</v>
@@ -35312,15 +33503,6 @@
       <c r="B1046" t="s">
         <v>2029</v>
       </c>
-      <c r="C1046">
-        <v>0</v>
-      </c>
-      <c r="D1046">
-        <v>0</v>
-      </c>
-      <c r="E1046">
-        <v>0</v>
-      </c>
       <c r="F1046" t="b">
         <v>0</v>
       </c>
@@ -35338,14 +33520,8 @@
       <c r="B1047" t="s">
         <v>2030</v>
       </c>
-      <c r="C1047">
-        <v>0</v>
-      </c>
       <c r="D1047">
         <v>403</v>
-      </c>
-      <c r="E1047">
-        <v>0</v>
       </c>
       <c r="F1047" t="b">
         <v>0</v>
@@ -35364,14 +33540,8 @@
       <c r="B1048" t="s">
         <v>2031</v>
       </c>
-      <c r="C1048">
-        <v>0</v>
-      </c>
       <c r="D1048">
         <v>389</v>
-      </c>
-      <c r="E1048">
-        <v>0</v>
       </c>
       <c r="F1048" t="b">
         <v>0</v>
@@ -35390,14 +33560,8 @@
       <c r="B1049" t="s">
         <v>2032</v>
       </c>
-      <c r="C1049">
-        <v>0</v>
-      </c>
       <c r="D1049">
         <v>368</v>
-      </c>
-      <c r="E1049">
-        <v>0</v>
       </c>
       <c r="F1049" t="b">
         <v>0</v>
@@ -35416,14 +33580,8 @@
       <c r="B1050" t="s">
         <v>2033</v>
       </c>
-      <c r="C1050">
-        <v>0</v>
-      </c>
       <c r="D1050">
         <v>381</v>
-      </c>
-      <c r="E1050">
-        <v>0</v>
       </c>
       <c r="F1050" t="b">
         <v>0</v>
@@ -35442,14 +33600,8 @@
       <c r="B1051" t="s">
         <v>2034</v>
       </c>
-      <c r="C1051">
-        <v>0</v>
-      </c>
       <c r="D1051">
         <v>332</v>
-      </c>
-      <c r="E1051">
-        <v>0</v>
       </c>
       <c r="F1051" t="b">
         <v>0</v>
@@ -35468,14 +33620,8 @@
       <c r="B1052" t="s">
         <v>2035</v>
       </c>
-      <c r="C1052">
-        <v>0</v>
-      </c>
       <c r="D1052">
         <v>336</v>
-      </c>
-      <c r="E1052">
-        <v>0</v>
       </c>
       <c r="F1052" t="b">
         <v>0</v>
@@ -35494,14 +33640,8 @@
       <c r="B1053" t="s">
         <v>2036</v>
       </c>
-      <c r="C1053">
-        <v>0</v>
-      </c>
       <c r="D1053" t="s">
         <v>2455</v>
-      </c>
-      <c r="E1053">
-        <v>0</v>
       </c>
       <c r="F1053" t="b">
         <v>0</v>
@@ -35520,14 +33660,8 @@
       <c r="B1054" t="s">
         <v>2037</v>
       </c>
-      <c r="C1054">
-        <v>0</v>
-      </c>
       <c r="D1054">
         <v>498</v>
-      </c>
-      <c r="E1054">
-        <v>0</v>
       </c>
       <c r="F1054" t="b">
         <v>0</v>
@@ -35604,9 +33738,6 @@
       <c r="D1057">
         <v>235</v>
       </c>
-      <c r="E1057">
-        <v>0</v>
-      </c>
       <c r="F1057" t="b">
         <v>0</v>
       </c>
@@ -35630,9 +33761,6 @@
       <c r="D1058">
         <v>317</v>
       </c>
-      <c r="E1058">
-        <v>0</v>
-      </c>
       <c r="F1058" t="b">
         <v>0</v>
       </c>
@@ -35650,14 +33778,8 @@
       <c r="B1059" t="s">
         <v>1394</v>
       </c>
-      <c r="C1059">
-        <v>0</v>
-      </c>
       <c r="D1059">
         <v>243</v>
-      </c>
-      <c r="E1059">
-        <v>0</v>
       </c>
       <c r="F1059" t="b">
         <v>0</v>
@@ -35682,9 +33804,6 @@
       <c r="D1060">
         <v>271</v>
       </c>
-      <c r="E1060">
-        <v>0</v>
-      </c>
       <c r="F1060" t="b">
         <v>0</v>
       </c>
@@ -35708,9 +33827,6 @@
       <c r="D1061">
         <v>402</v>
       </c>
-      <c r="E1061">
-        <v>0</v>
-      </c>
       <c r="F1061" t="b">
         <v>0</v>
       </c>
@@ -35728,14 +33844,8 @@
       <c r="B1062" t="s">
         <v>1388</v>
       </c>
-      <c r="C1062">
-        <v>0</v>
-      </c>
       <c r="D1062">
         <v>262</v>
-      </c>
-      <c r="E1062">
-        <v>0</v>
       </c>
       <c r="F1062" t="b">
         <v>0</v>
@@ -35760,9 +33870,6 @@
       <c r="D1063">
         <v>276</v>
       </c>
-      <c r="E1063">
-        <v>0</v>
-      </c>
       <c r="F1063" t="b">
         <v>0</v>
       </c>
@@ -35780,14 +33887,8 @@
       <c r="B1064" t="s">
         <v>1902</v>
       </c>
-      <c r="C1064">
-        <v>0</v>
-      </c>
       <c r="D1064">
         <v>260</v>
-      </c>
-      <c r="E1064">
-        <v>0</v>
       </c>
       <c r="F1064" t="b">
         <v>0</v>
@@ -35806,14 +33907,8 @@
       <c r="B1065" t="s">
         <v>1358</v>
       </c>
-      <c r="C1065">
-        <v>0</v>
-      </c>
       <c r="D1065">
         <v>235</v>
-      </c>
-      <c r="E1065">
-        <v>0</v>
       </c>
       <c r="F1065" t="b">
         <v>0</v>
@@ -35838,9 +33933,6 @@
       <c r="D1066">
         <v>270</v>
       </c>
-      <c r="E1066">
-        <v>0</v>
-      </c>
       <c r="F1066" t="b">
         <v>0</v>
       </c>
@@ -35864,9 +33956,6 @@
       <c r="D1067">
         <v>411</v>
       </c>
-      <c r="E1067">
-        <v>0</v>
-      </c>
       <c r="F1067" t="b">
         <v>0</v>
       </c>
@@ -35890,9 +33979,6 @@
       <c r="D1068">
         <v>270</v>
       </c>
-      <c r="E1068">
-        <v>0</v>
-      </c>
       <c r="F1068" t="b">
         <v>0</v>
       </c>
@@ -35910,14 +33996,8 @@
       <c r="B1069" t="s">
         <v>1901</v>
       </c>
-      <c r="C1069">
-        <v>0</v>
-      </c>
       <c r="D1069">
         <v>218</v>
-      </c>
-      <c r="E1069">
-        <v>0</v>
       </c>
       <c r="F1069" t="b">
         <v>0</v>
@@ -35942,9 +34022,6 @@
       <c r="D1070">
         <v>285</v>
       </c>
-      <c r="E1070">
-        <v>0</v>
-      </c>
       <c r="F1070" t="b">
         <v>0</v>
       </c>
@@ -35965,12 +34042,6 @@
       <c r="C1071" t="s">
         <v>2090</v>
       </c>
-      <c r="D1071">
-        <v>0</v>
-      </c>
-      <c r="E1071">
-        <v>0</v>
-      </c>
       <c r="F1071" t="b">
         <v>0</v>
       </c>
@@ -35991,12 +34062,6 @@
       <c r="C1072" t="s">
         <v>2429</v>
       </c>
-      <c r="D1072">
-        <v>0</v>
-      </c>
-      <c r="E1072">
-        <v>0</v>
-      </c>
       <c r="F1072" t="b">
         <v>0</v>
       </c>
@@ -36020,9 +34085,6 @@
       <c r="D1073">
         <v>410</v>
       </c>
-      <c r="E1073">
-        <v>0</v>
-      </c>
       <c r="F1073" t="b">
         <v>0</v>
       </c>
@@ -36046,9 +34108,6 @@
       <c r="D1074">
         <v>622</v>
       </c>
-      <c r="E1074">
-        <v>0</v>
-      </c>
       <c r="F1074" t="b">
         <v>1</v>
       </c>
@@ -36072,9 +34131,6 @@
       <c r="D1075">
         <v>367</v>
       </c>
-      <c r="E1075">
-        <v>0</v>
-      </c>
       <c r="F1075" t="b">
         <v>0</v>
       </c>
@@ -36098,9 +34154,6 @@
       <c r="D1076">
         <v>288</v>
       </c>
-      <c r="E1076">
-        <v>0</v>
-      </c>
       <c r="F1076" t="b">
         <v>0</v>
       </c>
@@ -36124,9 +34177,6 @@
       <c r="D1077">
         <v>313</v>
       </c>
-      <c r="E1077">
-        <v>0</v>
-      </c>
       <c r="F1077" t="b">
         <v>0</v>
       </c>
@@ -36150,9 +34200,6 @@
       <c r="D1078">
         <v>401</v>
       </c>
-      <c r="E1078">
-        <v>0</v>
-      </c>
       <c r="F1078" t="b">
         <v>0</v>
       </c>
@@ -36176,9 +34223,6 @@
       <c r="D1079">
         <v>385</v>
       </c>
-      <c r="E1079">
-        <v>0</v>
-      </c>
       <c r="F1079" t="b">
         <v>0</v>
       </c>
@@ -36199,12 +34243,6 @@
       <c r="C1080" t="s">
         <v>2211</v>
       </c>
-      <c r="D1080">
-        <v>0</v>
-      </c>
-      <c r="E1080">
-        <v>0</v>
-      </c>
       <c r="F1080" t="b">
         <v>0</v>
       </c>
@@ -36228,9 +34266,6 @@
       <c r="D1081">
         <v>349</v>
       </c>
-      <c r="E1081">
-        <v>0</v>
-      </c>
       <c r="F1081" t="b">
         <v>0</v>
       </c>
@@ -36254,9 +34289,6 @@
       <c r="D1082">
         <v>476</v>
       </c>
-      <c r="E1082">
-        <v>0</v>
-      </c>
       <c r="F1082" t="b">
         <v>0</v>
       </c>
@@ -36280,9 +34312,6 @@
       <c r="D1083">
         <v>476</v>
       </c>
-      <c r="E1083">
-        <v>0</v>
-      </c>
       <c r="F1083" t="b">
         <v>0</v>
       </c>
@@ -36306,9 +34335,6 @@
       <c r="D1084">
         <v>331</v>
       </c>
-      <c r="E1084">
-        <v>0</v>
-      </c>
       <c r="F1084" t="b">
         <v>0</v>
       </c>
@@ -36332,9 +34358,6 @@
       <c r="D1085">
         <v>476</v>
       </c>
-      <c r="E1085">
-        <v>0</v>
-      </c>
       <c r="F1085" t="b">
         <v>0</v>
       </c>
@@ -36358,9 +34381,6 @@
       <c r="D1086">
         <v>391</v>
       </c>
-      <c r="E1086">
-        <v>0</v>
-      </c>
       <c r="F1086" t="b">
         <v>0</v>
       </c>
@@ -36384,9 +34404,6 @@
       <c r="D1087">
         <v>377</v>
       </c>
-      <c r="E1087">
-        <v>0</v>
-      </c>
       <c r="F1087" t="b">
         <v>0</v>
       </c>
@@ -36410,9 +34427,6 @@
       <c r="D1088">
         <v>217</v>
       </c>
-      <c r="E1088">
-        <v>0</v>
-      </c>
       <c r="F1088" t="b">
         <v>0</v>
       </c>
@@ -36436,9 +34450,6 @@
       <c r="D1089">
         <v>260</v>
       </c>
-      <c r="E1089">
-        <v>0</v>
-      </c>
       <c r="F1089" t="b">
         <v>0</v>
       </c>
@@ -36462,9 +34473,6 @@
       <c r="D1090">
         <v>308</v>
       </c>
-      <c r="E1090">
-        <v>0</v>
-      </c>
       <c r="F1090" t="b">
         <v>0</v>
       </c>
@@ -36488,9 +34496,6 @@
       <c r="D1091">
         <v>226</v>
       </c>
-      <c r="E1091">
-        <v>0</v>
-      </c>
       <c r="F1091" t="b">
         <v>0</v>
       </c>
@@ -36514,9 +34519,6 @@
       <c r="D1092">
         <v>280</v>
       </c>
-      <c r="E1092">
-        <v>0</v>
-      </c>
       <c r="F1092" t="b">
         <v>0</v>
       </c>
@@ -36540,9 +34542,6 @@
       <c r="D1093">
         <v>400</v>
       </c>
-      <c r="E1093">
-        <v>0</v>
-      </c>
       <c r="F1093" t="b">
         <v>0</v>
       </c>
@@ -36566,9 +34565,6 @@
       <c r="D1094">
         <v>226</v>
       </c>
-      <c r="E1094">
-        <v>0</v>
-      </c>
       <c r="F1094" t="b">
         <v>0</v>
       </c>
@@ -36592,9 +34588,6 @@
       <c r="D1095">
         <v>487</v>
       </c>
-      <c r="E1095">
-        <v>0</v>
-      </c>
       <c r="F1095" t="b">
         <v>0</v>
       </c>
@@ -36618,9 +34611,6 @@
       <c r="D1096">
         <v>524</v>
       </c>
-      <c r="E1096">
-        <v>0</v>
-      </c>
       <c r="F1096" t="b">
         <v>0</v>
       </c>
@@ -36644,9 +34634,6 @@
       <c r="D1097">
         <v>510</v>
       </c>
-      <c r="E1097">
-        <v>0</v>
-      </c>
       <c r="F1097" t="b">
         <v>0</v>
       </c>
@@ -36670,9 +34657,6 @@
       <c r="D1098">
         <v>336</v>
       </c>
-      <c r="E1098">
-        <v>0</v>
-      </c>
       <c r="F1098" t="b">
         <v>0</v>
       </c>
@@ -36696,9 +34680,6 @@
       <c r="D1099">
         <v>578</v>
       </c>
-      <c r="E1099">
-        <v>0</v>
-      </c>
       <c r="F1099" t="b">
         <v>0</v>
       </c>
@@ -36722,9 +34703,6 @@
       <c r="D1100">
         <v>509</v>
       </c>
-      <c r="E1100">
-        <v>0</v>
-      </c>
       <c r="F1100" t="b">
         <v>0</v>
       </c>
@@ -36748,9 +34726,6 @@
       <c r="D1101">
         <v>491</v>
       </c>
-      <c r="E1101">
-        <v>0</v>
-      </c>
       <c r="F1101" t="b">
         <v>0</v>
       </c>
@@ -36768,14 +34743,8 @@
       <c r="B1102" t="s">
         <v>1592</v>
       </c>
-      <c r="C1102">
-        <v>0</v>
-      </c>
       <c r="D1102">
         <v>250</v>
-      </c>
-      <c r="E1102">
-        <v>0</v>
       </c>
       <c r="F1102" t="b">
         <v>0</v>
@@ -36800,9 +34769,6 @@
       <c r="D1103">
         <v>341</v>
       </c>
-      <c r="E1103">
-        <v>0</v>
-      </c>
       <c r="F1103" t="b">
         <v>0</v>
       </c>
@@ -36826,9 +34792,6 @@
       <c r="D1104">
         <v>400</v>
       </c>
-      <c r="E1104">
-        <v>0</v>
-      </c>
       <c r="F1104" t="b">
         <v>0</v>
       </c>
@@ -36852,9 +34815,6 @@
       <c r="D1105">
         <v>377</v>
       </c>
-      <c r="E1105">
-        <v>0</v>
-      </c>
       <c r="F1105" t="b">
         <v>0</v>
       </c>
@@ -36878,9 +34838,6 @@
       <c r="D1106">
         <v>308</v>
       </c>
-      <c r="E1106">
-        <v>0</v>
-      </c>
       <c r="F1106" t="b">
         <v>0</v>
       </c>
@@ -36904,9 +34861,6 @@
       <c r="D1107">
         <v>337</v>
       </c>
-      <c r="E1107">
-        <v>0</v>
-      </c>
       <c r="F1107" t="b">
         <v>0</v>
       </c>
@@ -36930,9 +34884,6 @@
       <c r="D1108">
         <v>351</v>
       </c>
-      <c r="E1108">
-        <v>0</v>
-      </c>
       <c r="F1108" t="b">
         <v>0</v>
       </c>
@@ -36956,9 +34907,6 @@
       <c r="D1109">
         <v>578</v>
       </c>
-      <c r="E1109">
-        <v>0</v>
-      </c>
       <c r="F1109" t="b">
         <v>0</v>
       </c>
@@ -36982,9 +34930,6 @@
       <c r="D1110">
         <v>318</v>
       </c>
-      <c r="E1110">
-        <v>0</v>
-      </c>
       <c r="F1110" t="b">
         <v>0</v>
       </c>
@@ -37008,9 +34953,6 @@
       <c r="D1111">
         <v>397</v>
       </c>
-      <c r="E1111">
-        <v>0</v>
-      </c>
       <c r="F1111" t="b">
         <v>0</v>
       </c>
@@ -37028,14 +34970,8 @@
       <c r="B1112" t="s">
         <v>1253</v>
       </c>
-      <c r="C1112">
-        <v>0</v>
-      </c>
       <c r="D1112">
         <v>270</v>
-      </c>
-      <c r="E1112">
-        <v>0</v>
       </c>
       <c r="F1112" t="b">
         <v>0</v>
@@ -37060,9 +34996,6 @@
       <c r="D1113">
         <v>271</v>
       </c>
-      <c r="E1113">
-        <v>0</v>
-      </c>
       <c r="F1113" t="b">
         <v>0</v>
       </c>
@@ -37086,9 +35019,6 @@
       <c r="D1114">
         <v>463</v>
       </c>
-      <c r="E1114">
-        <v>0</v>
-      </c>
       <c r="F1114" t="b">
         <v>0</v>
       </c>
@@ -37112,9 +35042,6 @@
       <c r="D1115">
         <v>462</v>
       </c>
-      <c r="E1115">
-        <v>0</v>
-      </c>
       <c r="F1115" t="b">
         <v>0</v>
       </c>
@@ -37138,9 +35065,6 @@
       <c r="D1116">
         <v>465</v>
       </c>
-      <c r="E1116">
-        <v>0</v>
-      </c>
       <c r="F1116" t="b">
         <v>0</v>
       </c>
@@ -37164,9 +35088,6 @@
       <c r="D1117">
         <v>395</v>
       </c>
-      <c r="E1117">
-        <v>0</v>
-      </c>
       <c r="F1117" t="b">
         <v>0</v>
       </c>
@@ -37190,9 +35111,6 @@
       <c r="D1118">
         <v>300</v>
       </c>
-      <c r="E1118">
-        <v>0</v>
-      </c>
       <c r="F1118" t="b">
         <v>0</v>
       </c>
@@ -37210,14 +35128,8 @@
       <c r="B1119" t="s">
         <v>1898</v>
       </c>
-      <c r="C1119">
-        <v>0</v>
-      </c>
       <c r="D1119">
         <v>262</v>
-      </c>
-      <c r="E1119">
-        <v>0</v>
       </c>
       <c r="F1119" t="b">
         <v>0</v>
@@ -37236,14 +35148,8 @@
       <c r="B1120" t="s">
         <v>1279</v>
       </c>
-      <c r="C1120">
-        <v>0</v>
-      </c>
       <c r="D1120">
         <v>285</v>
-      </c>
-      <c r="E1120">
-        <v>0</v>
       </c>
       <c r="F1120" t="b">
         <v>0</v>
@@ -37268,9 +35174,6 @@
       <c r="D1121">
         <v>444</v>
       </c>
-      <c r="E1121">
-        <v>0</v>
-      </c>
       <c r="F1121" t="b">
         <v>0</v>
       </c>
@@ -37288,14 +35191,8 @@
       <c r="B1122" t="s">
         <v>1279</v>
       </c>
-      <c r="C1122">
-        <v>0</v>
-      </c>
       <c r="D1122">
         <v>209</v>
-      </c>
-      <c r="E1122">
-        <v>0</v>
       </c>
       <c r="F1122" t="b">
         <v>0</v>
@@ -37320,9 +35217,6 @@
       <c r="D1123">
         <v>330</v>
       </c>
-      <c r="E1123">
-        <v>0</v>
-      </c>
       <c r="F1123" t="b">
         <v>0</v>
       </c>
@@ -37340,14 +35234,8 @@
       <c r="B1124" t="s">
         <v>1271</v>
       </c>
-      <c r="C1124">
-        <v>0</v>
-      </c>
       <c r="D1124">
         <v>252</v>
-      </c>
-      <c r="E1124">
-        <v>0</v>
       </c>
       <c r="F1124" t="b">
         <v>0</v>
@@ -37372,9 +35260,6 @@
       <c r="D1125">
         <v>324</v>
       </c>
-      <c r="E1125">
-        <v>0</v>
-      </c>
       <c r="F1125" t="b">
         <v>0</v>
       </c>
@@ -37392,14 +35277,8 @@
       <c r="B1126" t="s">
         <v>1222</v>
       </c>
-      <c r="C1126">
-        <v>0</v>
-      </c>
       <c r="D1126">
         <v>252</v>
-      </c>
-      <c r="E1126">
-        <v>0</v>
       </c>
       <c r="F1126" t="b">
         <v>0</v>
@@ -37418,14 +35297,8 @@
       <c r="B1127" t="s">
         <v>1222</v>
       </c>
-      <c r="C1127">
-        <v>0</v>
-      </c>
       <c r="D1127">
         <v>235</v>
-      </c>
-      <c r="E1127">
-        <v>0</v>
       </c>
       <c r="F1127" t="b">
         <v>0</v>
@@ -37450,9 +35323,6 @@
       <c r="D1128">
         <v>342</v>
       </c>
-      <c r="E1128">
-        <v>0</v>
-      </c>
       <c r="F1128" t="b">
         <v>0</v>
       </c>
@@ -37476,9 +35346,6 @@
       <c r="D1129">
         <v>451</v>
       </c>
-      <c r="E1129">
-        <v>0</v>
-      </c>
       <c r="F1129" t="b">
         <v>0</v>
       </c>
@@ -37502,9 +35369,6 @@
       <c r="D1130">
         <v>228</v>
       </c>
-      <c r="E1130">
-        <v>0</v>
-      </c>
       <c r="F1130" t="b">
         <v>0</v>
       </c>
@@ -37528,9 +35392,6 @@
       <c r="D1131">
         <v>270</v>
       </c>
-      <c r="E1131">
-        <v>0</v>
-      </c>
       <c r="F1131" t="b">
         <v>0</v>
       </c>
@@ -37554,9 +35415,6 @@
       <c r="D1132">
         <v>212</v>
       </c>
-      <c r="E1132">
-        <v>0</v>
-      </c>
       <c r="F1132" t="b">
         <v>0</v>
       </c>
@@ -37580,9 +35438,6 @@
       <c r="D1133">
         <v>418</v>
       </c>
-      <c r="E1133">
-        <v>0</v>
-      </c>
       <c r="F1133" t="b">
         <v>0</v>
       </c>
@@ -37600,14 +35455,8 @@
       <c r="B1134" t="s">
         <v>1899</v>
       </c>
-      <c r="C1134">
-        <v>0</v>
-      </c>
       <c r="D1134">
         <v>228</v>
-      </c>
-      <c r="E1134">
-        <v>0</v>
       </c>
       <c r="F1134" t="b">
         <v>0</v>
@@ -37632,9 +35481,6 @@
       <c r="D1135">
         <v>307</v>
       </c>
-      <c r="E1135">
-        <v>0</v>
-      </c>
       <c r="F1135" t="b">
         <v>0</v>
       </c>
@@ -37658,9 +35504,6 @@
       <c r="D1136">
         <v>301</v>
       </c>
-      <c r="E1136">
-        <v>0</v>
-      </c>
       <c r="F1136" t="b">
         <v>0</v>
       </c>
@@ -37681,12 +35524,6 @@
       <c r="C1137" t="s">
         <v>2439</v>
       </c>
-      <c r="D1137">
-        <v>0</v>
-      </c>
-      <c r="E1137">
-        <v>0</v>
-      </c>
       <c r="F1137" t="b">
         <v>0</v>
       </c>
@@ -37707,12 +35544,6 @@
       <c r="C1138" t="s">
         <v>2337</v>
       </c>
-      <c r="D1138">
-        <v>0</v>
-      </c>
-      <c r="E1138">
-        <v>0</v>
-      </c>
       <c r="F1138" t="b">
         <v>0</v>
       </c>
@@ -37736,9 +35567,6 @@
       <c r="D1139">
         <v>300</v>
       </c>
-      <c r="E1139">
-        <v>0</v>
-      </c>
       <c r="F1139" t="b">
         <v>0</v>
       </c>
@@ -37762,9 +35590,6 @@
       <c r="D1140">
         <v>410</v>
       </c>
-      <c r="E1140">
-        <v>0</v>
-      </c>
       <c r="F1140" t="b">
         <v>0</v>
       </c>
@@ -37788,9 +35613,6 @@
       <c r="D1141">
         <v>249</v>
       </c>
-      <c r="E1141">
-        <v>0</v>
-      </c>
       <c r="F1141" t="b">
         <v>0</v>
       </c>
@@ -37814,9 +35636,6 @@
       <c r="D1142">
         <v>212</v>
       </c>
-      <c r="E1142">
-        <v>0</v>
-      </c>
       <c r="F1142" t="b">
         <v>0</v>
       </c>
@@ -37840,9 +35659,6 @@
       <c r="D1143">
         <v>278</v>
       </c>
-      <c r="E1143">
-        <v>0</v>
-      </c>
       <c r="F1143" t="b">
         <v>0</v>
       </c>
@@ -37866,9 +35682,6 @@
       <c r="D1144">
         <v>316</v>
       </c>
-      <c r="E1144">
-        <v>0</v>
-      </c>
       <c r="F1144" t="b">
         <v>0</v>
       </c>
@@ -37892,9 +35705,6 @@
       <c r="D1145">
         <v>184</v>
       </c>
-      <c r="E1145">
-        <v>0</v>
-      </c>
       <c r="F1145" t="b">
         <v>0</v>
       </c>
@@ -37918,9 +35728,6 @@
       <c r="D1146">
         <v>300</v>
       </c>
-      <c r="E1146">
-        <v>0</v>
-      </c>
       <c r="F1146" t="b">
         <v>0</v>
       </c>
@@ -37944,9 +35751,6 @@
       <c r="D1147">
         <v>290</v>
       </c>
-      <c r="E1147">
-        <v>0</v>
-      </c>
       <c r="F1147" t="b">
         <v>0</v>
       </c>
@@ -37970,9 +35774,6 @@
       <c r="D1148">
         <v>356</v>
       </c>
-      <c r="E1148">
-        <v>0</v>
-      </c>
       <c r="F1148" t="b">
         <v>0</v>
       </c>
@@ -37996,9 +35797,6 @@
       <c r="D1149">
         <v>217</v>
       </c>
-      <c r="E1149">
-        <v>0</v>
-      </c>
       <c r="F1149" t="b">
         <v>0</v>
       </c>
@@ -38022,9 +35820,6 @@
       <c r="D1150">
         <v>608</v>
       </c>
-      <c r="E1150">
-        <v>0</v>
-      </c>
       <c r="F1150" t="b">
         <v>1</v>
       </c>
@@ -38048,9 +35843,6 @@
       <c r="D1151">
         <v>379</v>
       </c>
-      <c r="E1151">
-        <v>0</v>
-      </c>
       <c r="F1151" t="b">
         <v>1</v>
       </c>
@@ -38074,9 +35866,6 @@
       <c r="D1152">
         <v>416</v>
       </c>
-      <c r="E1152">
-        <v>0</v>
-      </c>
       <c r="F1152" t="b">
         <v>1</v>
       </c>
@@ -38100,9 +35889,6 @@
       <c r="D1153">
         <v>356</v>
       </c>
-      <c r="E1153">
-        <v>0</v>
-      </c>
       <c r="F1153" t="b">
         <v>0</v>
       </c>
@@ -38120,14 +35906,8 @@
       <c r="B1154" t="s">
         <v>1623</v>
       </c>
-      <c r="C1154">
-        <v>0</v>
-      </c>
       <c r="D1154">
         <v>366</v>
-      </c>
-      <c r="E1154">
-        <v>0</v>
       </c>
       <c r="F1154" t="b">
         <v>0</v>
@@ -38152,9 +35932,6 @@
       <c r="D1155">
         <v>308</v>
       </c>
-      <c r="E1155">
-        <v>0</v>
-      </c>
       <c r="F1155" t="b">
         <v>0</v>
       </c>
@@ -38172,14 +35949,8 @@
       <c r="B1156" t="s">
         <v>1627</v>
       </c>
-      <c r="C1156">
-        <v>0</v>
-      </c>
       <c r="D1156">
         <v>290</v>
-      </c>
-      <c r="E1156">
-        <v>0</v>
       </c>
       <c r="F1156" t="b">
         <v>0</v>
@@ -38198,14 +35969,8 @@
       <c r="B1157" t="s">
         <v>1634</v>
       </c>
-      <c r="C1157">
-        <v>0</v>
-      </c>
       <c r="D1157">
         <v>281</v>
-      </c>
-      <c r="E1157">
-        <v>0</v>
       </c>
       <c r="F1157" t="b">
         <v>0</v>
@@ -38230,9 +35995,6 @@
       <c r="D1158">
         <v>717</v>
       </c>
-      <c r="E1158">
-        <v>0</v>
-      </c>
       <c r="F1158" t="b">
         <v>1</v>
       </c>
@@ -38256,9 +36018,6 @@
       <c r="D1159">
         <v>709</v>
       </c>
-      <c r="E1159">
-        <v>0</v>
-      </c>
       <c r="F1159" t="b">
         <v>1</v>
       </c>
@@ -38282,9 +36041,6 @@
       <c r="D1160">
         <v>632</v>
       </c>
-      <c r="E1160">
-        <v>0</v>
-      </c>
       <c r="F1160" t="b">
         <v>1</v>
       </c>
@@ -38308,9 +36064,6 @@
       <c r="D1161">
         <v>695</v>
       </c>
-      <c r="E1161">
-        <v>0</v>
-      </c>
       <c r="F1161" t="b">
         <v>1</v>
       </c>
@@ -38331,12 +36084,6 @@
       <c r="C1162" t="s">
         <v>2447</v>
       </c>
-      <c r="D1162">
-        <v>0</v>
-      </c>
-      <c r="E1162">
-        <v>0</v>
-      </c>
       <c r="F1162" t="b">
         <v>0</v>
       </c>
@@ -38360,9 +36107,6 @@
       <c r="D1163">
         <v>280</v>
       </c>
-      <c r="E1163">
-        <v>0</v>
-      </c>
       <c r="F1163" t="b">
         <v>0</v>
       </c>
@@ -38386,9 +36130,6 @@
       <c r="D1164">
         <v>320</v>
       </c>
-      <c r="E1164">
-        <v>0</v>
-      </c>
       <c r="F1164" t="b">
         <v>0</v>
       </c>
@@ -38412,9 +36153,6 @@
       <c r="D1165">
         <v>456</v>
       </c>
-      <c r="E1165">
-        <v>0</v>
-      </c>
       <c r="F1165" t="b">
         <v>0</v>
       </c>
@@ -38438,9 +36176,6 @@
       <c r="D1166">
         <v>381</v>
       </c>
-      <c r="E1166">
-        <v>0</v>
-      </c>
       <c r="F1166" t="b">
         <v>0</v>
       </c>
@@ -38464,9 +36199,6 @@
       <c r="D1167">
         <v>322</v>
       </c>
-      <c r="E1167">
-        <v>0</v>
-      </c>
       <c r="F1167" t="b">
         <v>0</v>
       </c>
@@ -38484,14 +36216,8 @@
       <c r="B1168" t="s">
         <v>1633</v>
       </c>
-      <c r="C1168">
-        <v>0</v>
-      </c>
       <c r="D1168">
         <v>289</v>
-      </c>
-      <c r="E1168">
-        <v>0</v>
       </c>
       <c r="F1168" t="b">
         <v>0</v>
@@ -38513,12 +36239,6 @@
       <c r="C1169" t="s">
         <v>2214</v>
       </c>
-      <c r="D1169">
-        <v>0</v>
-      </c>
-      <c r="E1169">
-        <v>0</v>
-      </c>
       <c r="F1169" t="b">
         <v>0</v>
       </c>
@@ -38542,9 +36262,6 @@
       <c r="D1170">
         <v>325</v>
       </c>
-      <c r="E1170">
-        <v>0</v>
-      </c>
       <c r="F1170" t="b">
         <v>0</v>
       </c>
@@ -38568,9 +36285,6 @@
       <c r="D1171">
         <v>251</v>
       </c>
-      <c r="E1171">
-        <v>0</v>
-      </c>
       <c r="F1171" t="b">
         <v>0</v>
       </c>
@@ -38588,14 +36302,8 @@
       <c r="B1172" t="s">
         <v>1282</v>
       </c>
-      <c r="C1172">
-        <v>0</v>
-      </c>
       <c r="D1172">
         <v>270</v>
-      </c>
-      <c r="E1172">
-        <v>0</v>
       </c>
       <c r="F1172" t="b">
         <v>0</v>
@@ -38614,14 +36322,8 @@
       <c r="B1173" t="s">
         <v>1282</v>
       </c>
-      <c r="C1173">
-        <v>0</v>
-      </c>
       <c r="D1173">
         <v>321</v>
-      </c>
-      <c r="E1173">
-        <v>0</v>
       </c>
       <c r="F1173" t="b">
         <v>0</v>
@@ -38646,9 +36348,6 @@
       <c r="D1174">
         <v>367</v>
       </c>
-      <c r="E1174">
-        <v>0</v>
-      </c>
       <c r="F1174" t="b">
         <v>0</v>
       </c>
@@ -38672,9 +36371,6 @@
       <c r="D1175">
         <v>400</v>
       </c>
-      <c r="E1175">
-        <v>0</v>
-      </c>
       <c r="F1175" t="b">
         <v>0</v>
       </c>
@@ -38698,9 +36394,6 @@
       <c r="D1176">
         <v>310</v>
       </c>
-      <c r="E1176">
-        <v>0</v>
-      </c>
       <c r="F1176" t="b">
         <v>0</v>
       </c>
@@ -39186,12 +36879,6 @@
       <c r="B1195" t="s">
         <v>1613</v>
       </c>
-      <c r="C1195">
-        <v>0</v>
-      </c>
-      <c r="D1195">
-        <v>0</v>
-      </c>
       <c r="E1195" t="s">
         <v>2229</v>
       </c>
@@ -39212,9 +36899,6 @@
       <c r="B1196" t="s">
         <v>1519</v>
       </c>
-      <c r="C1196">
-        <v>0</v>
-      </c>
       <c r="D1196">
         <v>271</v>
       </c>
@@ -39683,12 +37367,6 @@
       <c r="C1214" t="s">
         <v>2215</v>
       </c>
-      <c r="D1214">
-        <v>0</v>
-      </c>
-      <c r="E1214">
-        <v>0</v>
-      </c>
       <c r="F1214" t="b">
         <v>0</v>
       </c>
@@ -39708,12 +37386,6 @@
       </c>
       <c r="C1215" t="s">
         <v>2333</v>
-      </c>
-      <c r="D1215">
-        <v>0</v>
-      </c>
-      <c r="E1215">
-        <v>0</v>
       </c>
       <c r="F1215" t="b">
         <v>0</v>
